--- a/Tutorial/My projects/My Portfolio/fundamental.xlsx
+++ b/Tutorial/My projects/My Portfolio/fundamental.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nafissaad\Tutorial\Fundamental analysis\My Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6346E3-15D7-4401-A1EC-93F22E9B39A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40823EEA-8749-4FC0-BEB9-96A0B888CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="61">
   <si>
     <t>(2022,)</t>
   </si>
@@ -115,10 +115,13 @@
     <t>SQUARETEXT</t>
   </si>
   <si>
-    <t>UNIQUEHRL</t>
+    <t>EXIMBANK</t>
   </si>
   <si>
     <t>HEIDELBCEM</t>
+  </si>
+  <si>
+    <t>OLYMPIC</t>
   </si>
   <si>
     <t>BSRMSTEEL</t>
@@ -142,10 +145,64 @@
     <t>UPGDCL</t>
   </si>
   <si>
-    <t>OLYMPIC</t>
+    <t>DELTALIFE</t>
   </si>
   <si>
-    <t>EXIMBANK</t>
+    <t>CROWNCEMNT</t>
+  </si>
+  <si>
+    <t>BENGALWTL</t>
+  </si>
+  <si>
+    <t>EHL</t>
+  </si>
+  <si>
+    <t>IBNSINA</t>
+  </si>
+  <si>
+    <t>WALTONHIL</t>
+  </si>
+  <si>
+    <t>UNIQUEHRL</t>
+  </si>
+  <si>
+    <t>UNILEVERCL</t>
+  </si>
+  <si>
+    <t>KDSALTD</t>
+  </si>
+  <si>
+    <t>JHRML</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ANDTEL</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>SIMTEX</t>
+  </si>
+  <si>
+    <t>APEXFOOT</t>
+  </si>
+  <si>
+    <t>APEXFOODS</t>
+  </si>
+  <si>
+    <t>FORTUNE</t>
+  </si>
+  <si>
+    <t>INDEXAGRO</t>
+  </si>
+  <si>
+    <t>AMANFEED</t>
+  </si>
+  <si>
+    <t>SKICL</t>
   </si>
 </sst>
 </file>
@@ -511,15 +568,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:A168"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3770,213 +3826,213 @@
         <v>31</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154">
-        <v>2.4116341373188428</v>
+        <v>3.0186981896120658E-2</v>
       </c>
       <c r="D154">
-        <v>0.90360500899883112</v>
+        <v>2.9133965656483692E-2</v>
       </c>
       <c r="E154">
-        <v>0.82956271960266148</v>
+        <v>2.7100821360023661E-2</v>
       </c>
       <c r="F154">
-        <v>0.69991804742263442</v>
+        <v>2.388854600630751E-2</v>
       </c>
       <c r="G154">
-        <v>1.085017294495737</v>
+        <v>2.653091301212579E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>6.6472166666395313E-2</v>
+        <v>0.92404970664053332</v>
       </c>
       <c r="D155">
-        <v>8.627767916555177E-3</v>
+        <v>0.93259415157713665</v>
       </c>
       <c r="E155">
-        <v>2.364224691543397E-2</v>
+        <v>0.93690509555665036</v>
       </c>
       <c r="F155">
-        <v>2.7530194876267299E-2</v>
+        <v>0.94195598876047482</v>
       </c>
       <c r="G155">
-        <v>0.1199113397768302</v>
+        <v>0.94102959695347976</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C156">
-        <v>6.3312157160444443E-2</v>
+        <v>7.5950293359466625E-2</v>
       </c>
       <c r="D156">
-        <v>5.7708769799345402E-2</v>
+        <v>6.7405848422863304E-2</v>
       </c>
       <c r="E156">
-        <v>3.9492646966253112E-2</v>
+        <v>6.3094904443349642E-2</v>
       </c>
       <c r="F156">
-        <v>1.5654959672590341E-2</v>
+        <v>5.8044011239525149E-2</v>
       </c>
       <c r="G156">
-        <v>4.2273479305810997E-2</v>
+        <v>5.8970403046520292E-2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C157">
-        <v>8.0624940963271126</v>
+        <v>0.20798614185684389</v>
       </c>
       <c r="D157">
-        <v>8.2841724120779254</v>
+        <v>0.1888212460990282</v>
       </c>
       <c r="E157">
-        <v>6.4544382296471339</v>
+        <v>0.21425840333904361</v>
       </c>
       <c r="F157">
-        <v>7.074454285110777</v>
+        <v>0.16666775643543169</v>
       </c>
       <c r="G157">
-        <v>8.8742086659690411</v>
+        <v>0.25955777097440341</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C158">
-        <v>0.26125427788920252</v>
+        <v>8.2665564820941742E-2</v>
       </c>
       <c r="D158">
-        <v>0.35719607179376089</v>
+        <v>8.1611786332736483E-2</v>
       </c>
       <c r="E158">
-        <v>0.39408594076754172</v>
+        <v>9.2029281365958948E-2</v>
       </c>
       <c r="F158">
-        <v>0.39930862018192409</v>
+        <v>6.8593646137686135E-2</v>
       </c>
       <c r="G158">
-        <v>0.37419358492046012</v>
+        <v>0.1167756075519906</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C159">
-        <v>0.73874572211079748</v>
+        <v>6.2784738988765293E-3</v>
       </c>
       <c r="D159">
-        <v>0.64280392820623911</v>
+        <v>5.5011116990635418E-3</v>
       </c>
       <c r="E159">
-        <v>0.60591405923245822</v>
+        <v>5.8065787137753172E-3</v>
       </c>
       <c r="F159">
-        <v>0.60069137981807585</v>
+        <v>3.9814503673758651E-3</v>
       </c>
       <c r="G159">
-        <v>0.62580641507953993</v>
+        <v>6.8863046433431654E-3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B160" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>0.29121775461491928</v>
+        <v>1.5902197994560809</v>
       </c>
       <c r="D160">
-        <v>0.27275146879029333</v>
+        <v>1.4626133941178101</v>
       </c>
       <c r="E160">
-        <v>0.1651953908837015</v>
+        <v>0.86711777614449692</v>
       </c>
       <c r="F160">
-        <v>-0.14373514096472079</v>
+        <v>0.73554733832545094</v>
       </c>
       <c r="G160">
-        <v>0.57875103789477678</v>
+        <v>0.77055185550929717</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C161">
-        <v>2.4958011527173671E-2</v>
+        <v>0.83924995443277373</v>
       </c>
       <c r="D161">
-        <v>2.4486707430017851E-2</v>
+        <v>0.57722434402466882</v>
       </c>
       <c r="E161">
-        <v>1.076720890234251E-2</v>
+        <v>8.6634635464066689E-2</v>
       </c>
       <c r="F161">
-        <v>-3.745963253240414E-3</v>
+        <v>8.312223034104238E-2</v>
       </c>
       <c r="G161">
-        <v>3.9094869330401287E-2</v>
+        <v>0.1087808924249735</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C162">
-        <v>1.8437624248091519E-2</v>
+        <v>1.1226742022420479</v>
       </c>
       <c r="D162">
-        <v>1.574015172485237E-2</v>
+        <v>1.3235886504501639</v>
       </c>
       <c r="E162">
-        <v>6.5240032526222101E-3</v>
+        <v>1.100576680956215</v>
       </c>
       <c r="F162">
-        <v>-2.2501678353367919E-3</v>
+        <v>1.1505923224304071</v>
       </c>
       <c r="G162">
-        <v>2.4465820023661482E-2</v>
+        <v>1.551598466934075</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163">
-        <v>3.0186981896120658E-2</v>
+        <v>8.5942464223177577</v>
       </c>
       <c r="D163">
-        <v>2.9133965656483692E-2</v>
+        <v>17.476861110240421</v>
       </c>
       <c r="E163">
-        <v>2.7100821360023661E-2</v>
+        <v>9.2815464289530709</v>
       </c>
       <c r="F163">
-        <v>2.388854600630751E-2</v>
+        <v>11.10335853226346</v>
       </c>
       <c r="G163">
-        <v>2.653091301212579E-2</v>
+        <v>34.898313093376593</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,19 +4041,19 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>0.92404970664053332</v>
+        <v>0.46169594658907809</v>
       </c>
       <c r="D164">
-        <v>0.93259415157713665</v>
+        <v>0.44547829392837229</v>
       </c>
       <c r="E164">
-        <v>0.93690509555665036</v>
+        <v>0.62708163773498427</v>
       </c>
       <c r="F164">
-        <v>0.94195598876047482</v>
+        <v>0.56980683970794044</v>
       </c>
       <c r="G164">
-        <v>0.94102959695347976</v>
+        <v>0.59246589471926514</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,19 +4062,19 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>7.5950293359466625E-2</v>
+        <v>0.53830405341092191</v>
       </c>
       <c r="D165">
-        <v>6.7405848422863304E-2</v>
+        <v>0.55452170607162765</v>
       </c>
       <c r="E165">
-        <v>6.3094904443349642E-2</v>
+        <v>0.37291836226501579</v>
       </c>
       <c r="F165">
-        <v>5.8044011239525149E-2</v>
+        <v>0.43019316029205951</v>
       </c>
       <c r="G165">
-        <v>5.8970403046520292E-2</v>
+        <v>0.40753410528073492</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,19 +4083,19 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>0.20798614185684389</v>
+        <v>8.1942713701343442E-2</v>
       </c>
       <c r="D166">
-        <v>0.1888212460990282</v>
+        <v>7.2615660651157182E-2</v>
       </c>
       <c r="E166">
-        <v>0.21425840333904361</v>
+        <v>-1.557242052376547E-2</v>
       </c>
       <c r="F166">
-        <v>0.16666775643543169</v>
+        <v>-4.6736291733312849E-4</v>
       </c>
       <c r="G166">
-        <v>0.25955777097440341</v>
+        <v>3.317090465469133E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,19 +4104,19 @@
         <v>13</v>
       </c>
       <c r="C167">
-        <v>8.2665564820941742E-2</v>
+        <v>0.17089778564973701</v>
       </c>
       <c r="D167">
-        <v>8.1611786332736483E-2</v>
+        <v>0.17332642389006361</v>
       </c>
       <c r="E167">
-        <v>9.2029281365958948E-2</v>
+        <v>-4.5958163042453253E-2</v>
       </c>
       <c r="F167">
-        <v>6.8593646137686135E-2</v>
+        <v>-1.2500063555336361E-3</v>
       </c>
       <c r="G167">
-        <v>0.1167756075519906</v>
+        <v>0.12629108617444701</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4069,42 +4125,42 @@
         <v>14</v>
       </c>
       <c r="C168">
-        <v>6.2784738988765293E-3</v>
+        <v>9.1994970734204304E-2</v>
       </c>
       <c r="D168">
-        <v>5.5011116990635418E-3</v>
+        <v>9.6113264282812222E-2</v>
       </c>
       <c r="E168">
-        <v>5.8065787137753172E-3</v>
+        <v>-1.713864289450024E-2</v>
       </c>
       <c r="F168">
-        <v>3.9814503673758651E-3</v>
+        <v>-5.3774418447217456E-4</v>
       </c>
       <c r="G168">
-        <v>6.8863046433431654E-3</v>
+        <v>5.1467924809035441E-2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C169">
-        <v>1.5902197994560809</v>
+        <v>2.2090729130491069</v>
       </c>
       <c r="D169">
-        <v>1.4626133941178101</v>
+        <v>2.2183947130163699</v>
       </c>
       <c r="E169">
-        <v>0.86711777614449692</v>
+        <v>2.493095573368822</v>
       </c>
       <c r="F169">
-        <v>0.73554733832545094</v>
+        <v>2.0499407408818162</v>
       </c>
       <c r="G169">
-        <v>0.77055185550929717</v>
+        <v>1.9743286026494771</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,19 +4169,19 @@
         <v>7</v>
       </c>
       <c r="C170">
-        <v>0.83924995443277373</v>
+        <v>0.15407838263233589</v>
       </c>
       <c r="D170">
-        <v>0.57722434402466882</v>
+        <v>0.191108871627894</v>
       </c>
       <c r="E170">
-        <v>8.6634635464066689E-2</v>
+        <v>0.21509190604755191</v>
       </c>
       <c r="F170">
-        <v>8.312223034104238E-2</v>
+        <v>0.16544254124205851</v>
       </c>
       <c r="G170">
-        <v>0.1087808924249735</v>
+        <v>0.1287989903133106</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="C171">
-        <v>1.1226742022420479</v>
+        <v>1.3208243553391039</v>
       </c>
       <c r="D171">
-        <v>1.3235886504501639</v>
+        <v>1.253399223910479</v>
       </c>
       <c r="E171">
-        <v>1.100576680956215</v>
+        <v>1.3467509291920789</v>
       </c>
       <c r="F171">
-        <v>1.1505923224304071</v>
+        <v>1.2509935069584339</v>
       </c>
       <c r="G171">
-        <v>1.551598466934075</v>
+        <v>1.4860245258525751</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,19 +4211,19 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>8.5942464223177577</v>
+        <v>72.444830272678431</v>
       </c>
       <c r="D172">
-        <v>17.476861110240421</v>
+        <v>65.054853855979857</v>
       </c>
       <c r="E172">
-        <v>9.2815464289530709</v>
+        <v>43.964930675309809</v>
       </c>
       <c r="F172">
-        <v>11.10335853226346</v>
+        <v>38.914460529927638</v>
       </c>
       <c r="G172">
-        <v>34.898313093376593</v>
+        <v>54.339226991652687</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4176,19 +4232,19 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>0.46169594658907809</v>
+        <v>0.35593982979199917</v>
       </c>
       <c r="D173">
-        <v>0.44547829392837229</v>
+        <v>0.34140858303757549</v>
       </c>
       <c r="E173">
-        <v>0.62708163773498427</v>
+        <v>0.30171037052390298</v>
       </c>
       <c r="F173">
-        <v>0.56980683970794044</v>
+        <v>0.35903632505903321</v>
       </c>
       <c r="G173">
-        <v>0.59246589471926514</v>
+        <v>0.35088666616579789</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,19 +4253,19 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>0.53830405341092191</v>
+        <v>0.64406017020800077</v>
       </c>
       <c r="D174">
-        <v>0.55452170607162765</v>
+        <v>0.6585914169624244</v>
       </c>
       <c r="E174">
-        <v>0.37291836226501579</v>
+        <v>0.69828962947609696</v>
       </c>
       <c r="F174">
-        <v>0.43019316029205951</v>
+        <v>0.64096367494096673</v>
       </c>
       <c r="G174">
-        <v>0.40753410528073492</v>
+        <v>0.649113333834202</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4218,19 +4274,19 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>8.1942713701343442E-2</v>
+        <v>0.13853637085955781</v>
       </c>
       <c r="D175">
-        <v>7.2615660651157182E-2</v>
+        <v>0.13629376588451031</v>
       </c>
       <c r="E175">
-        <v>-1.557242052376547E-2</v>
+        <v>0.12739537118977279</v>
       </c>
       <c r="F175">
-        <v>-4.6736291733312849E-4</v>
+        <v>0.1129822265626025</v>
       </c>
       <c r="G175">
-        <v>3.317090465469133E-2</v>
+        <v>5.6213606395062572E-2</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4239,19 +4295,19 @@
         <v>13</v>
       </c>
       <c r="C176">
-        <v>0.17089778564973701</v>
+        <v>0.28410732598555161</v>
       </c>
       <c r="D176">
-        <v>0.17332642389006361</v>
+        <v>0.25938768101684567</v>
       </c>
       <c r="E176">
-        <v>-4.5958163042453253E-2</v>
+        <v>0.2457001039143592</v>
       </c>
       <c r="F176">
-        <v>-1.2500063555336361E-3</v>
+        <v>0.22051176588835561</v>
       </c>
       <c r="G176">
-        <v>0.12629108617444701</v>
+        <v>0.1286906206290053</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4260,42 +4316,42 @@
         <v>14</v>
       </c>
       <c r="C177">
-        <v>9.1994970734204304E-2</v>
+        <v>0.18298221273159429</v>
       </c>
       <c r="D177">
-        <v>9.6113264282812222E-2</v>
+        <v>0.1708305003834818</v>
       </c>
       <c r="E177">
-        <v>-1.713864289450024E-2</v>
+        <v>0.1715698345245964</v>
       </c>
       <c r="F177">
-        <v>-5.3774418447217456E-4</v>
+        <v>0.14134003183152249</v>
       </c>
       <c r="G177">
-        <v>5.1467924809035441E-2</v>
+        <v>8.3534797789686172E-2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C178">
-        <v>2.2090729130491069</v>
+        <v>1.0632956103961979</v>
       </c>
       <c r="D178">
-        <v>2.2183947130163699</v>
+        <v>1.151266296747121</v>
       </c>
       <c r="E178">
-        <v>2.493095573368822</v>
+        <v>1.1112913673734339</v>
       </c>
       <c r="F178">
-        <v>2.0499407408818162</v>
+        <v>1.1636688422260331</v>
       </c>
       <c r="G178">
-        <v>1.9743286026494771</v>
+        <v>1.135502960866537</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,19 +4360,19 @@
         <v>7</v>
       </c>
       <c r="C179">
-        <v>0.15407838263233589</v>
+        <v>1.7607440402521889E-2</v>
       </c>
       <c r="D179">
-        <v>0.191108871627894</v>
+        <v>2.699337581120392E-2</v>
       </c>
       <c r="E179">
-        <v>0.21509190604755191</v>
+        <v>2.8430701951144902E-2</v>
       </c>
       <c r="F179">
-        <v>0.16544254124205851</v>
+        <v>0.40898779672686991</v>
       </c>
       <c r="G179">
-        <v>0.1287989903133106</v>
+        <v>0.1836774855494985</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,19 +4381,19 @@
         <v>8</v>
       </c>
       <c r="C180">
-        <v>1.3208243553391039</v>
+        <v>1.0571221257311321</v>
       </c>
       <c r="D180">
-        <v>1.253399223910479</v>
+        <v>0.92785042169574328</v>
       </c>
       <c r="E180">
-        <v>1.3467509291920789</v>
+        <v>0.59864807163264111</v>
       </c>
       <c r="F180">
-        <v>1.2509935069584339</v>
+        <v>0.7595949139920547</v>
       </c>
       <c r="G180">
-        <v>1.4860245258525751</v>
+        <v>0.81948236885210901</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4346,19 +4402,19 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>72.444830272678431</v>
+        <v>3.5954713234959228</v>
       </c>
       <c r="D181">
-        <v>65.054853855979857</v>
+        <v>3.276172495584921</v>
       </c>
       <c r="E181">
-        <v>43.964930675309809</v>
+        <v>2.17130137100136</v>
       </c>
       <c r="F181">
-        <v>38.914460529927638</v>
+        <v>4.6890564054433828</v>
       </c>
       <c r="G181">
-        <v>54.339226991652687</v>
+        <v>4.9830357473595557</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,19 +4423,19 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>0.35593982979199917</v>
+        <v>0.71959840583121848</v>
       </c>
       <c r="D182">
-        <v>0.34140858303757549</v>
+        <v>0.68245257510475821</v>
       </c>
       <c r="E182">
-        <v>0.30171037052390298</v>
+        <v>0.66929217408313557</v>
       </c>
       <c r="F182">
-        <v>0.35903632505903321</v>
+        <v>0.67601040369259757</v>
       </c>
       <c r="G182">
-        <v>0.35088666616579789</v>
+        <v>0.68335683111004142</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,19 +4444,19 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>0.64406017020800077</v>
+        <v>0.28040159416878152</v>
       </c>
       <c r="D183">
-        <v>0.6585914169624244</v>
+        <v>0.31754742489524168</v>
       </c>
       <c r="E183">
-        <v>0.69828962947609696</v>
+        <v>0.33070782591686448</v>
       </c>
       <c r="F183">
-        <v>0.64096367494096673</v>
+        <v>0.32398959630740243</v>
       </c>
       <c r="G183">
-        <v>0.649113333834202</v>
+        <v>0.31664316888995858</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,19 +4465,19 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>0.13853637085955781</v>
+        <v>3.7291330035273011E-2</v>
       </c>
       <c r="D184">
-        <v>0.13629376588451031</v>
+        <v>2.8302072071549559E-2</v>
       </c>
       <c r="E184">
-        <v>0.12739537118977279</v>
+        <v>1.918950865479116E-2</v>
       </c>
       <c r="F184">
-        <v>0.1129822265626025</v>
+        <v>5.5418732506067402E-2</v>
       </c>
       <c r="G184">
-        <v>5.6213606395062572E-2</v>
+        <v>4.884456462329663E-2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,19 +4486,19 @@
         <v>13</v>
       </c>
       <c r="C185">
-        <v>0.28410732598555161</v>
+        <v>0.14058939356279171</v>
       </c>
       <c r="D185">
-        <v>0.25938768101684567</v>
+        <v>8.2696590958385913E-2</v>
       </c>
       <c r="E185">
-        <v>0.2457001039143592</v>
+        <v>3.4736892965624808E-2</v>
       </c>
       <c r="F185">
-        <v>0.22051176588835561</v>
+        <v>0.12992944165884371</v>
       </c>
       <c r="G185">
-        <v>0.1286906206290053</v>
+        <v>0.12641125233609421</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4451,42 +4507,42 @@
         <v>14</v>
       </c>
       <c r="C186">
-        <v>0.18298221273159429</v>
+        <v>3.9421490078229017E-2</v>
       </c>
       <c r="D186">
-        <v>0.1708305003834818</v>
+        <v>2.626008950645058E-2</v>
       </c>
       <c r="E186">
-        <v>0.1715698345245964</v>
+        <v>1.1487762351768601E-2</v>
       </c>
       <c r="F186">
-        <v>0.14134003183152249</v>
+        <v>4.2095787351494947E-2</v>
       </c>
       <c r="G186">
-        <v>8.3534797789686172E-2</v>
+        <v>4.0027259523049037E-2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C187">
-        <v>1.0632956103961979</v>
+        <v>5.0061150690083052</v>
       </c>
       <c r="D187">
-        <v>1.151266296747121</v>
+        <v>2.8216899258039692</v>
       </c>
       <c r="E187">
-        <v>1.1112913673734339</v>
+        <v>1.3833160274610239</v>
       </c>
       <c r="F187">
-        <v>1.1636688422260331</v>
+        <v>2.2391367742738102</v>
       </c>
       <c r="G187">
-        <v>1.135502960866537</v>
+        <v>1.7628023888664699</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,19 +4551,19 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>1.7607440402521889E-2</v>
+        <v>4.1591291744962873E-3</v>
       </c>
       <c r="D188">
-        <v>2.699337581120392E-2</v>
+        <v>1.133763830307777E-2</v>
       </c>
       <c r="E188">
-        <v>2.8430701951144902E-2</v>
+        <v>7.1856081816626619E-3</v>
       </c>
       <c r="F188">
-        <v>0.40898779672686991</v>
+        <v>9.3055071741743288E-3</v>
       </c>
       <c r="G188">
-        <v>0.1836774855494985</v>
+        <v>1.6944579915752159E-2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4516,19 +4572,19 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>1.0571221257311321</v>
+        <v>0.20682964600020909</v>
       </c>
       <c r="D189">
-        <v>0.92785042169574328</v>
+        <v>0.19840289065241079</v>
       </c>
       <c r="E189">
-        <v>0.59864807163264111</v>
+        <v>0.16040202913038701</v>
       </c>
       <c r="F189">
-        <v>0.7595949139920547</v>
+        <v>0.30999840088382502</v>
       </c>
       <c r="G189">
-        <v>0.81948236885210901</v>
+        <v>0.40903114883367292</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,19 +4593,19 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>3.5954713234959228</v>
+        <v>0.60922504233594321</v>
       </c>
       <c r="D190">
-        <v>3.276172495584921</v>
+        <v>0.49267146878315299</v>
       </c>
       <c r="E190">
-        <v>2.17130137100136</v>
+        <v>0.74881939521866614</v>
       </c>
       <c r="F190">
-        <v>4.6890564054433828</v>
+        <v>1.5204558770848271</v>
       </c>
       <c r="G190">
-        <v>4.9830357473595557</v>
+        <v>2.3157131398373871</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4558,19 +4614,19 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>0.71959840583121848</v>
+        <v>0.48370496555183279</v>
       </c>
       <c r="D191">
-        <v>0.68245257510475821</v>
+        <v>0.49853564349777729</v>
       </c>
       <c r="E191">
-        <v>0.66929217408313557</v>
+        <v>0.50883765353768939</v>
       </c>
       <c r="F191">
-        <v>0.67601040369259757</v>
+        <v>0.49320961602844587</v>
       </c>
       <c r="G191">
-        <v>0.68335683111004142</v>
+        <v>0.56076223904844735</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4579,19 +4635,19 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>0.28040159416878152</v>
+        <v>0.51629503444816716</v>
       </c>
       <c r="D192">
-        <v>0.31754742489524168</v>
+        <v>0.50146435650222276</v>
       </c>
       <c r="E192">
-        <v>0.33070782591686448</v>
+        <v>0.49116234646231061</v>
       </c>
       <c r="F192">
-        <v>0.32398959630740243</v>
+        <v>0.50679038397155407</v>
       </c>
       <c r="G192">
-        <v>0.31664316888995858</v>
+        <v>0.43923776095155259</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4600,19 +4656,19 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>3.7291330035273011E-2</v>
+        <v>5.0817320743254332E-2</v>
       </c>
       <c r="D193">
-        <v>2.8302072071549559E-2</v>
+        <v>5.719313046853277E-2</v>
       </c>
       <c r="E193">
-        <v>1.918950865479116E-2</v>
+        <v>2.1961632286303601E-2</v>
       </c>
       <c r="F193">
-        <v>5.5418732506067402E-2</v>
+        <v>0.15227018072563009</v>
       </c>
       <c r="G193">
-        <v>4.884456462329663E-2</v>
+        <v>0.16713568528514811</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,19 +4677,19 @@
         <v>13</v>
       </c>
       <c r="C194">
-        <v>0.14058939356279171</v>
+        <v>2.0357601291363121E-2</v>
       </c>
       <c r="D194">
-        <v>8.2696590958385913E-2</v>
+        <v>2.2628293044726251E-2</v>
       </c>
       <c r="E194">
-        <v>3.4736892965624808E-2</v>
+        <v>7.1721507300210588E-3</v>
       </c>
       <c r="F194">
-        <v>0.12992944165884371</v>
+        <v>9.3142084025583799E-2</v>
       </c>
       <c r="G194">
-        <v>0.12641125233609421</v>
+        <v>0.1556416761964774</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,233 +4698,233 @@
         <v>14</v>
       </c>
       <c r="C195">
-        <v>3.9421490078229017E-2</v>
+        <v>1.051052846000638E-2</v>
       </c>
       <c r="D195">
-        <v>2.626008950645058E-2</v>
+        <v>1.134728241041737E-2</v>
       </c>
       <c r="E195">
-        <v>1.1487762351768601E-2</v>
+        <v>3.5226903817385169E-3</v>
       </c>
       <c r="F195">
-        <v>4.2095787351494947E-2</v>
+        <v>4.7203512527236369E-2</v>
       </c>
       <c r="G195">
-        <v>4.0027259523049037E-2</v>
+        <v>6.8363701363287288E-2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>5.0061150690083052</v>
+        <v>0.28174632619364709</v>
       </c>
       <c r="D196">
-        <v>2.8216899258039692</v>
+        <v>0.29432843250658769</v>
       </c>
       <c r="E196">
-        <v>1.3833160274610239</v>
+        <v>0.30676181654532469</v>
       </c>
       <c r="F196">
-        <v>2.2391367742738102</v>
+        <v>0.31098762069949959</v>
       </c>
       <c r="G196">
-        <v>1.7628023888664699</v>
+        <v>0.33018165199673749</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C197">
-        <v>4.1591291744962873E-3</v>
+        <v>0.16964356825497179</v>
       </c>
       <c r="D197">
-        <v>1.133763830307777E-2</v>
+        <v>0.16402628078416681</v>
       </c>
       <c r="E197">
-        <v>7.1856081816626619E-3</v>
+        <v>0.17375850654397479</v>
       </c>
       <c r="F197">
-        <v>9.3055071741743288E-3</v>
+        <v>0.97558857372429897</v>
       </c>
       <c r="G197">
-        <v>1.6944579915752159E-2</v>
+        <v>0.97273347329441684</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C198">
-        <v>0.20682964600020909</v>
+        <v>0.83035643174502816</v>
       </c>
       <c r="D198">
-        <v>0.19840289065241079</v>
+        <v>0.83597371921583319</v>
       </c>
       <c r="E198">
-        <v>0.16040202913038701</v>
+        <v>0.82624149345602527</v>
       </c>
       <c r="F198">
-        <v>0.30999840088382502</v>
+        <v>2.4411426275701031E-2</v>
       </c>
       <c r="G198">
-        <v>0.40903114883367292</v>
+        <v>2.7266526705583209E-2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>0.60922504233594321</v>
+        <v>2.8190186129031818</v>
       </c>
       <c r="D199">
-        <v>0.49267146878315299</v>
+        <v>2.7359024476892051</v>
       </c>
       <c r="E199">
-        <v>0.74881939521866614</v>
+        <v>0.1956864112661946</v>
       </c>
       <c r="F199">
-        <v>1.5204558770848271</v>
+        <v>0.2230183932856088</v>
       </c>
       <c r="G199">
-        <v>2.3157131398373871</v>
+        <v>0.2389827015677661</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C200">
-        <v>0.48370496555183279</v>
+        <v>0.95651470536313832</v>
       </c>
       <c r="D200">
-        <v>0.49853564349777729</v>
+        <v>0.96325262434643377</v>
       </c>
       <c r="E200">
-        <v>0.50883765353768939</v>
+        <v>7.2653236939435137E-2</v>
       </c>
       <c r="F200">
-        <v>0.49320961602844587</v>
+        <v>2.8411268852878622</v>
       </c>
       <c r="G200">
-        <v>0.56076223904844735</v>
+        <v>2.893940400048491</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C201">
-        <v>0.51629503444816716</v>
+        <v>0.79424813765698254</v>
       </c>
       <c r="D201">
-        <v>0.50146435650222276</v>
+        <v>0.80525387891930011</v>
       </c>
       <c r="E201">
-        <v>0.49116234646231061</v>
+        <v>6.0029118993253347E-2</v>
       </c>
       <c r="F201">
-        <v>0.50679038397155407</v>
+        <v>6.9355959500116748E-2</v>
       </c>
       <c r="G201">
-        <v>0.43923776095155259</v>
+        <v>7.8907703202288348E-2</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B202" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>5.0817320743254332E-2</v>
+        <v>1.46601985406811</v>
       </c>
       <c r="D202">
-        <v>5.719313046853277E-2</v>
+        <v>1.663984608019039</v>
       </c>
       <c r="E202">
-        <v>2.1961632286303601E-2</v>
+        <v>1.7177891131141509</v>
       </c>
       <c r="F202">
-        <v>0.15227018072563009</v>
+        <v>1.5292277201757589</v>
       </c>
       <c r="G202">
-        <v>0.16713568528514811</v>
+        <v>1.578187285751222</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C203">
-        <v>2.0357601291363121E-2</v>
+        <v>7.1645072523090743E-3</v>
       </c>
       <c r="D203">
-        <v>2.2628293044726251E-2</v>
+        <v>1.2007452794987441E-2</v>
       </c>
       <c r="E203">
-        <v>7.1721507300210588E-3</v>
+        <v>1.0096120588889619E-2</v>
       </c>
       <c r="F203">
-        <v>9.3142084025583799E-2</v>
+        <v>1.495368039661407E-2</v>
       </c>
       <c r="G203">
-        <v>0.1556416761964774</v>
+        <v>2.0695393198988131E-2</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C204">
-        <v>1.051052846000638E-2</v>
+        <v>0.44860232825122909</v>
       </c>
       <c r="D204">
-        <v>1.134728241041737E-2</v>
+        <v>0.40716559149761927</v>
       </c>
       <c r="E204">
-        <v>3.5226903817385169E-3</v>
+        <v>0.33514598031449988</v>
       </c>
       <c r="F204">
-        <v>4.7203512527236369E-2</v>
+        <v>0.26403539288371253</v>
       </c>
       <c r="G204">
-        <v>6.8363701363287288E-2</v>
+        <v>0.48606130312837681</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A205" s="2"/>
       <c r="B205" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205">
-        <v>0.28174632619364709</v>
+        <v>2.1323622526966468</v>
       </c>
       <c r="D205">
-        <v>0.29432843250658769</v>
+        <v>2.1012962449040762</v>
       </c>
       <c r="E205">
-        <v>0.30676181654532469</v>
+        <v>1.9639684696312589</v>
       </c>
       <c r="F205">
-        <v>0.31098762069949959</v>
+        <v>1.367746245368892</v>
       </c>
       <c r="G205">
-        <v>0.33018165199673749</v>
+        <v>2.2638372634126198</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,19 +4933,19 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>0.16964356825497179</v>
+        <v>0.31181743523633459</v>
       </c>
       <c r="D206">
-        <v>0.16402628078416681</v>
+        <v>0.2449661948773966</v>
       </c>
       <c r="E206">
-        <v>0.17375850654397479</v>
+        <v>0.23399742370481799</v>
       </c>
       <c r="F206">
-        <v>0.97558857372429897</v>
+        <v>0.27378046656307081</v>
       </c>
       <c r="G206">
-        <v>0.97273347329441684</v>
+        <v>0.32622773376963199</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4898,19 +4954,19 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>0.83035643174502816</v>
+        <v>0.68818256476366535</v>
       </c>
       <c r="D207">
-        <v>0.83597371921583319</v>
+        <v>0.75503380512260332</v>
       </c>
       <c r="E207">
-        <v>0.82624149345602527</v>
+        <v>0.76600257629518198</v>
       </c>
       <c r="F207">
-        <v>2.4411426275701031E-2</v>
+        <v>0.72621953343692924</v>
       </c>
       <c r="G207">
-        <v>2.7266526705583209E-2</v>
+        <v>0.67377226623036801</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4919,19 +4975,19 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>2.8190186129031818</v>
+        <v>7.828789693689267E-2</v>
       </c>
       <c r="D208">
-        <v>2.7359024476892051</v>
+        <v>5.7668456866829233E-2</v>
       </c>
       <c r="E208">
-        <v>0.1956864112661946</v>
+        <v>2.3831725167431261E-2</v>
       </c>
       <c r="F208">
-        <v>0.2230183932856088</v>
+        <v>-0.12809891535259621</v>
       </c>
       <c r="G208">
-        <v>0.2389827015677661</v>
+        <v>2.4273504904963061E-2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -4940,19 +4996,19 @@
         <v>13</v>
       </c>
       <c r="C209">
-        <v>0.95651470536313832</v>
+        <v>5.1033162765236888E-2</v>
       </c>
       <c r="D209">
-        <v>0.96325262434643377</v>
+        <v>3.1098755038027281E-2</v>
       </c>
       <c r="E209">
-        <v>7.2653236939435137E-2</v>
+        <v>1.0426997429244449E-2</v>
       </c>
       <c r="F209">
-        <v>2.8411268852878622</v>
+        <v>-4.6573585377179351E-2</v>
       </c>
       <c r="G209">
-        <v>2.893940400048491</v>
+        <v>1.751097814044697E-2</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -4961,42 +5017,42 @@
         <v>14</v>
       </c>
       <c r="C210">
-        <v>0.79424813765698254</v>
+        <v>3.5120132839782318E-2</v>
       </c>
       <c r="D210">
-        <v>0.80525387891930011</v>
+        <v>2.3480611350937469E-2</v>
       </c>
       <c r="E210">
-        <v>6.0029118993253347E-2</v>
+        <v>7.9871068938244891E-3</v>
       </c>
       <c r="F210">
-        <v>6.9355959500116748E-2</v>
+        <v>-3.3822647443100179E-2</v>
       </c>
       <c r="G210">
-        <v>7.8907703202288348E-2</v>
+        <v>1.1798411425599391E-2</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>1.46601985406811</v>
+        <v>2.014189263587439</v>
       </c>
       <c r="D211">
-        <v>1.663984608019039</v>
+        <v>2.3448011132466728</v>
       </c>
       <c r="E211">
-        <v>1.7177891131141509</v>
+        <v>2.0173919686903372</v>
       </c>
       <c r="F211">
-        <v>1.5292277201757589</v>
+        <v>1.899441102445796</v>
       </c>
       <c r="G211">
-        <v>1.578187285751222</v>
+        <v>1.598612007311593</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,19 +5061,19 @@
         <v>7</v>
       </c>
       <c r="C212">
-        <v>7.1645072523090743E-3</v>
+        <v>0.21521998279798951</v>
       </c>
       <c r="D212">
-        <v>1.2007452794987441E-2</v>
+        <v>0.26832541612180882</v>
       </c>
       <c r="E212">
-        <v>1.0096120588889619E-2</v>
+        <v>6.8075546269118437E-2</v>
       </c>
       <c r="F212">
-        <v>1.495368039661407E-2</v>
+        <v>0.32350630316966411</v>
       </c>
       <c r="G212">
-        <v>2.0695393198988131E-2</v>
+        <v>0.43702967962702632</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5026,19 +5082,19 @@
         <v>8</v>
       </c>
       <c r="C213">
-        <v>0.44860232825122909</v>
+        <v>1.0823121439557719</v>
       </c>
       <c r="D213">
-        <v>0.40716559149761927</v>
+        <v>0.94326055338760528</v>
       </c>
       <c r="E213">
-        <v>0.33514598031449988</v>
+        <v>0.76644559645166466</v>
       </c>
       <c r="F213">
-        <v>0.26403539288371253</v>
+        <v>1.2026566600144359</v>
       </c>
       <c r="G213">
-        <v>0.48606130312837681</v>
+        <v>1.3189824776658809</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5047,19 +5103,19 @@
         <v>9</v>
       </c>
       <c r="C214">
-        <v>2.1323622526966468</v>
+        <v>4.7247229195305493</v>
       </c>
       <c r="D214">
-        <v>2.1012962449040762</v>
+        <v>6.6188231598898017</v>
       </c>
       <c r="E214">
-        <v>1.9639684696312589</v>
+        <v>26.46282304516588</v>
       </c>
       <c r="F214">
-        <v>1.367746245368892</v>
+        <v>192.13866060709171</v>
       </c>
       <c r="G214">
-        <v>2.2638372634126198</v>
+        <v>1117.778817216277</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5068,19 +5124,19 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>0.31181743523633459</v>
+        <v>0.46023403832108878</v>
       </c>
       <c r="D215">
-        <v>0.2449661948773966</v>
+        <v>0.4511771078155275</v>
       </c>
       <c r="E215">
-        <v>0.23399742370481799</v>
+        <v>0.44302960139823111</v>
       </c>
       <c r="F215">
-        <v>0.27378046656307081</v>
+        <v>0.46398239024936899</v>
       </c>
       <c r="G215">
-        <v>0.32622773376963199</v>
+        <v>0.5383235325618243</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5089,19 +5145,19 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>0.68818256476366535</v>
+        <v>0.53976596167891122</v>
       </c>
       <c r="D216">
-        <v>0.75503380512260332</v>
+        <v>0.54882289218447255</v>
       </c>
       <c r="E216">
-        <v>0.76600257629518198</v>
+        <v>0.55697039860176889</v>
       </c>
       <c r="F216">
-        <v>0.72621953343692924</v>
+        <v>0.53601760975063095</v>
       </c>
       <c r="G216">
-        <v>0.67377226623036801</v>
+        <v>0.4616764674381757</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,19 +5166,19 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>7.828789693689267E-2</v>
+        <v>0.1044466557102878</v>
       </c>
       <c r="D217">
-        <v>5.7668456866829233E-2</v>
+        <v>5.7615568231310019E-2</v>
       </c>
       <c r="E217">
-        <v>2.3831725167431261E-2</v>
+        <v>-0.26053633586645492</v>
       </c>
       <c r="F217">
-        <v>-0.12809891535259621</v>
+        <v>-8.8417536459726252E-3</v>
       </c>
       <c r="G217">
-        <v>2.4273504904963061E-2</v>
+        <v>4.1613912655831878E-2</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5131,19 +5187,19 @@
         <v>13</v>
       </c>
       <c r="C218">
-        <v>5.1033162765236888E-2</v>
+        <v>0.20943129410975719</v>
       </c>
       <c r="D218">
-        <v>3.1098755038027281E-2</v>
+        <v>9.9023735247799505E-2</v>
       </c>
       <c r="E218">
-        <v>1.0426997429244449E-2</v>
+        <v>-0.35852341137301891</v>
       </c>
       <c r="F218">
-        <v>-4.6573585377179351E-2</v>
+        <v>-1.9838142842887051E-2</v>
       </c>
       <c r="G218">
-        <v>1.751097814044697E-2</v>
+        <v>0.1188884976631626</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,42 +5208,42 @@
         <v>14</v>
       </c>
       <c r="C219">
-        <v>3.5120132839782318E-2</v>
+        <v>0.113043883870812</v>
       </c>
       <c r="D219">
-        <v>2.3480611350937469E-2</v>
+        <v>5.4346492773606821E-2</v>
       </c>
       <c r="E219">
-        <v>7.9871068938244891E-3</v>
+        <v>-0.19968692734049631</v>
       </c>
       <c r="F219">
-        <v>-3.3822647443100179E-2</v>
+        <v>-1.06335939085359E-2</v>
       </c>
       <c r="G219">
-        <v>1.1798411425599391E-2</v>
+        <v>5.4888021620160703E-2</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>2.014189263587439</v>
+        <v>1.111174330308607</v>
       </c>
       <c r="D220">
-        <v>2.3448011132466728</v>
+        <v>1.1636514910338209</v>
       </c>
       <c r="E220">
-        <v>2.0173919686903372</v>
+        <v>1.2578330074634909</v>
       </c>
       <c r="F220">
-        <v>1.899441102445796</v>
+        <v>1.203391304673761</v>
       </c>
       <c r="G220">
-        <v>1.598612007311593</v>
+        <v>1.1484973395736351</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5196,19 +5252,19 @@
         <v>7</v>
       </c>
       <c r="C221">
-        <v>0.21521998279798951</v>
+        <v>1.269175199387435E-2</v>
       </c>
       <c r="D221">
-        <v>0.26832541612180882</v>
+        <v>2.4626588542302291E-2</v>
       </c>
       <c r="E221">
-        <v>6.8075546269118437E-2</v>
+        <v>1.90189929290401E-2</v>
       </c>
       <c r="F221">
-        <v>0.32350630316966411</v>
+        <v>0.15116121273408459</v>
       </c>
       <c r="G221">
-        <v>0.43702967962702632</v>
+        <v>1.1451620008327621E-2</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5217,19 +5273,19 @@
         <v>8</v>
       </c>
       <c r="C222">
-        <v>1.0823121439557719</v>
+        <v>2.4799678043067459</v>
       </c>
       <c r="D222">
-        <v>0.94326055338760528</v>
+        <v>2.5481321752980288</v>
       </c>
       <c r="E222">
-        <v>0.76644559645166466</v>
+        <v>2.1453756693359991</v>
       </c>
       <c r="F222">
-        <v>1.2026566600144359</v>
+        <v>2.5613031239953639</v>
       </c>
       <c r="G222">
-        <v>1.3189824776658809</v>
+        <v>2.9491455754106561</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,19 +5294,19 @@
         <v>9</v>
       </c>
       <c r="C223">
-        <v>4.7247229195305493</v>
+        <v>5.9073012283179098</v>
       </c>
       <c r="D223">
-        <v>6.6188231598898017</v>
+        <v>6.266535966617778</v>
       </c>
       <c r="E223">
-        <v>26.46282304516588</v>
+        <v>6.3853009063327448</v>
       </c>
       <c r="F223">
-        <v>192.13866060709171</v>
+        <v>8.0388682010282295</v>
       </c>
       <c r="G223">
-        <v>1117.778817216277</v>
+        <v>8.5601865675636937</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5259,19 +5315,19 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>0.46023403832108878</v>
+        <v>0.68439751903839752</v>
       </c>
       <c r="D224">
-        <v>0.4511771078155275</v>
+        <v>0.66225613286711738</v>
       </c>
       <c r="E224">
-        <v>0.44302960139823111</v>
+        <v>0.64378158814320252</v>
       </c>
       <c r="F224">
-        <v>0.46398239024936899</v>
+        <v>0.69993891764205995</v>
       </c>
       <c r="G224">
-        <v>0.5383235325618243</v>
+        <v>0.68285893049585289</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5280,19 +5336,19 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>0.53976596167891122</v>
+        <v>0.31560248096160248</v>
       </c>
       <c r="D225">
-        <v>0.54882289218447255</v>
+        <v>0.33774386713288262</v>
       </c>
       <c r="E225">
-        <v>0.55697039860176889</v>
+        <v>0.35621841185679742</v>
       </c>
       <c r="F225">
-        <v>0.53601760975063095</v>
+        <v>0.30006108235793999</v>
       </c>
       <c r="G225">
-        <v>0.4616764674381757</v>
+        <v>0.31714106950414711</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5301,19 +5357,19 @@
         <v>12</v>
       </c>
       <c r="C226">
-        <v>0.1044466557102878</v>
+        <v>6.6107646251791141E-3</v>
       </c>
       <c r="D226">
-        <v>5.7615568231310019E-2</v>
+        <v>7.6950401544709501E-3</v>
       </c>
       <c r="E226">
-        <v>-0.26053633586645492</v>
+        <v>4.5176583874742687E-3</v>
       </c>
       <c r="F226">
-        <v>-8.8417536459726252E-3</v>
+        <v>6.1471551896826781E-3</v>
       </c>
       <c r="G226">
-        <v>4.1613912655831878E-2</v>
+        <v>6.3534370443788226E-3</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5322,19 +5378,19 @@
         <v>13</v>
       </c>
       <c r="C227">
-        <v>0.20943129410975719</v>
+        <v>5.1946624064367793E-2</v>
       </c>
       <c r="D227">
-        <v>9.9023735247799505E-2</v>
+        <v>5.8055767449666652E-2</v>
       </c>
       <c r="E227">
-        <v>-0.35852341137301891</v>
+        <v>2.720823535296454E-2</v>
       </c>
       <c r="F227">
-        <v>-1.9838142842887051E-2</v>
+        <v>5.2471742310909952E-2</v>
       </c>
       <c r="G227">
-        <v>0.1188884976631626</v>
+        <v>5.9081628176936393E-2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,25 +5399,23 @@
         <v>14</v>
       </c>
       <c r="C228">
-        <v>0.113043883870812</v>
+        <v>1.639448343229416E-2</v>
       </c>
       <c r="D228">
-        <v>5.4346492773606821E-2</v>
+        <v>1.9607979407817739E-2</v>
       </c>
       <c r="E228">
-        <v>-0.19968692734049631</v>
+        <v>9.6920743868589999E-3</v>
       </c>
       <c r="F228">
-        <v>-1.06335939085359E-2</v>
+        <v>1.574472779101856E-2</v>
       </c>
       <c r="G228">
-        <v>5.4888021620160703E-2</v>
+        <v>1.873721074807996E-2</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
         <v>6</v>
       </c>
@@ -5551,25 +5605,25 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C238">
-        <v>1.111174330308607</v>
+        <v>0.97159816185856518</v>
       </c>
       <c r="D238">
-        <v>1.1636514910338209</v>
+        <v>0.8539939263657147</v>
       </c>
       <c r="E238">
-        <v>1.2578330074634909</v>
+        <v>7.1448796602170832</v>
       </c>
       <c r="F238">
-        <v>1.203391304673761</v>
+        <v>4.4182712003277347</v>
       </c>
       <c r="G238">
-        <v>1.1484973395736351</v>
+        <v>58.768656716417908</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5578,19 +5632,19 @@
         <v>7</v>
       </c>
       <c r="C239">
-        <v>1.269175199387435E-2</v>
+        <v>2.55935665049783E-2</v>
       </c>
       <c r="D239">
-        <v>2.4626588542302291E-2</v>
+        <v>4.9783328215102188E-2</v>
       </c>
       <c r="E239">
-        <v>1.90189929290401E-2</v>
+        <v>0.1996224634261444</v>
       </c>
       <c r="F239">
-        <v>0.15116121273408459</v>
+        <v>0.67718148299877101</v>
       </c>
       <c r="G239">
-        <v>1.1451620008327621E-2</v>
+        <v>9.5447761194029859</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,19 +5653,19 @@
         <v>8</v>
       </c>
       <c r="C240">
-        <v>2.4799678043067459</v>
+        <v>0.57342535668715922</v>
       </c>
       <c r="D240">
-        <v>2.5481321752980288</v>
+        <v>0.45189366512493911</v>
       </c>
       <c r="E240">
-        <v>2.1453756693359991</v>
+        <v>0.27978269305393871</v>
       </c>
       <c r="F240">
-        <v>2.5613031239953639</v>
+        <v>0.26772459078797112</v>
       </c>
       <c r="G240">
-        <v>2.9491455754106561</v>
+        <v>0.37412480974124812</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -5620,19 +5674,19 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>5.9073012283179098</v>
+        <v>1.240682645250345</v>
       </c>
       <c r="D241">
-        <v>6.266535966617778</v>
+        <v>1.5989229321342679</v>
       </c>
       <c r="E241">
-        <v>6.3853009063327448</v>
+        <v>0.76789653860783569</v>
       </c>
       <c r="F241">
-        <v>8.0388682010282295</v>
+        <v>0.66862745098039211</v>
       </c>
       <c r="G241">
-        <v>8.5601865675636937</v>
+        <v>1.076182136602452</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -5641,19 +5695,19 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>0.68439751903839752</v>
+        <v>0.6149286625681476</v>
       </c>
       <c r="D242">
-        <v>0.66225613286711738</v>
+        <v>0.51101621030543942</v>
       </c>
       <c r="E242">
-        <v>0.64378158814320252</v>
+        <v>0.1725705416043018</v>
       </c>
       <c r="F242">
-        <v>0.69993891764205995</v>
+        <v>0.28416444613627712</v>
       </c>
       <c r="G242">
-        <v>0.68285893049585289</v>
+        <v>8.1582952815829526E-3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5662,19 +5716,19 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>0.31560248096160248</v>
+        <v>0.38508293701426749</v>
       </c>
       <c r="D243">
-        <v>0.33774386713288262</v>
+        <v>0.48898378969456058</v>
       </c>
       <c r="E243">
-        <v>0.35621841185679742</v>
+        <v>0.82740174067298633</v>
       </c>
       <c r="F243">
-        <v>0.30006108235793999</v>
+        <v>0.71583555386372288</v>
       </c>
       <c r="G243">
-        <v>0.31714106950414711</v>
+        <v>0.99184170471841704</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,19 +5737,19 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>6.6107646251791141E-3</v>
+        <v>0.20175988671993531</v>
       </c>
       <c r="D244">
-        <v>7.6950401544709501E-3</v>
+        <v>0.35646316340211243</v>
       </c>
       <c r="E244">
-        <v>4.5176583874742687E-3</v>
+        <v>0.58797305329898952</v>
       </c>
       <c r="F244">
-        <v>6.1471551896826781E-3</v>
+        <v>0.68470630054207771</v>
       </c>
       <c r="G244">
-        <v>6.3534370443788226E-3</v>
+        <v>0.74792514239218877</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,19 +5758,19 @@
         <v>13</v>
       </c>
       <c r="C245">
-        <v>5.1946624064367793E-2</v>
+        <v>0.30043978552924883</v>
       </c>
       <c r="D245">
-        <v>5.8055767449666652E-2</v>
+        <v>0.32942491916230998</v>
       </c>
       <c r="E245">
-        <v>2.720823535296454E-2</v>
+        <v>0.1988208100231148</v>
       </c>
       <c r="F245">
-        <v>5.2471742310909952E-2</v>
+        <v>0.25608215900026587</v>
       </c>
       <c r="G245">
-        <v>5.9081628176936393E-2</v>
+        <v>0.28211896138972442</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -5725,243 +5779,3488 @@
         <v>14</v>
       </c>
       <c r="C246">
-        <v>1.639448343229416E-2</v>
+        <v>0.1156942350075397</v>
       </c>
       <c r="D246">
-        <v>1.9607979407817739E-2</v>
+        <v>0.1610834453918106</v>
       </c>
       <c r="E246">
-        <v>9.6920743868589999E-3</v>
+        <v>0.16450468429513829</v>
       </c>
       <c r="F246">
-        <v>1.574472779101856E-2</v>
+        <v>0.1833127141225733</v>
       </c>
       <c r="G246">
-        <v>1.873721074807996E-2</v>
+        <v>0.2798173515981735</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247">
-        <v>0.97159816185856518</v>
+        <v>0.1590168579118855</v>
       </c>
       <c r="D247">
-        <v>0.8539939263657147</v>
+        <v>0.16022508514734191</v>
       </c>
       <c r="E247">
-        <v>7.1448796602170832</v>
+        <v>0.1716842281317946</v>
       </c>
       <c r="F247">
-        <v>4.4182712003277347</v>
+        <v>0.2105578370978782</v>
       </c>
       <c r="G247">
-        <v>58.768656716417908</v>
+        <v>0.17886479003230271</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C248">
-        <v>2.55935665049783E-2</v>
+        <v>0.51069556594418475</v>
       </c>
       <c r="D248">
-        <v>4.9783328215102188E-2</v>
+        <v>0.48578409595735228</v>
       </c>
       <c r="E248">
-        <v>0.1996224634261444</v>
+        <v>0.46261916708479678</v>
       </c>
       <c r="F248">
-        <v>0.67718148299877101</v>
+        <v>0.48109171800136891</v>
       </c>
       <c r="G248">
-        <v>9.5447761194029859</v>
+        <v>0.39676972773419472</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C249">
-        <v>0.57342535668715922</v>
+        <v>0.48937526561835948</v>
       </c>
       <c r="D249">
-        <v>0.45189366512493911</v>
+        <v>0.51421590404264772</v>
       </c>
       <c r="E249">
-        <v>0.27978269305393871</v>
+        <v>0.53738083291520322</v>
       </c>
       <c r="F249">
-        <v>0.26772459078797112</v>
+        <v>0.51890828199863104</v>
       </c>
       <c r="G249">
-        <v>0.37412480974124812</v>
+        <v>0.60323027226580528</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C250">
-        <v>1.240682645250345</v>
+        <v>0.32561247216035633</v>
       </c>
       <c r="D250">
-        <v>1.5989229321342679</v>
+        <v>0.39048059149722741</v>
       </c>
       <c r="E250">
-        <v>0.76789653860783569</v>
+        <v>0.32537749634680962</v>
       </c>
       <c r="F250">
-        <v>0.66862745098039211</v>
+        <v>0.12230800487606661</v>
       </c>
       <c r="G250">
-        <v>1.076182136602452</v>
+        <v>0.15170278637770901</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C251">
-        <v>0.6149286625681476</v>
+        <v>0.1058040237371544</v>
       </c>
       <c r="D251">
-        <v>0.51101621030543942</v>
+        <v>0.1216702663786897</v>
       </c>
       <c r="E251">
-        <v>0.1725705416043018</v>
+        <v>0.10395269218798631</v>
       </c>
       <c r="F251">
-        <v>0.28416444613627712</v>
+        <v>4.9629018961253088E-2</v>
       </c>
       <c r="G251">
-        <v>8.1582952815829526E-3</v>
+        <v>4.4981640146878818E-2</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C252">
-        <v>0.38508293701426749</v>
+        <v>5.1777872219861167E-2</v>
       </c>
       <c r="D252">
-        <v>0.48898378969456058</v>
+        <v>6.2564786021027691E-2</v>
       </c>
       <c r="E252">
-        <v>0.82740174067298633</v>
+        <v>5.5862184311757823E-2</v>
       </c>
       <c r="F252">
-        <v>0.71583555386372288</v>
+        <v>2.5752908966461329E-2</v>
       </c>
       <c r="G252">
-        <v>0.99184170471841704</v>
+        <v>2.7134287032764191E-2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
+      <c r="A253" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B253" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C253">
-        <v>0.20175988671993531</v>
+        <v>0.97102495359868013</v>
       </c>
       <c r="D253">
-        <v>0.35646316340211243</v>
+        <v>1.0549840803330881</v>
       </c>
       <c r="E253">
-        <v>0.58797305329898952</v>
+        <v>1.008061420345489</v>
       </c>
       <c r="F253">
-        <v>0.68470630054207771</v>
+        <v>1.098914728682171</v>
       </c>
       <c r="G253">
-        <v>0.74792514239218877</v>
+        <v>1.1499491353001019</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C254">
-        <v>0.30043978552924883</v>
+        <v>2.433491441534337E-2</v>
       </c>
       <c r="D254">
-        <v>0.32942491916230998</v>
+        <v>0.1115601273573353</v>
       </c>
       <c r="E254">
-        <v>0.1988208100231148</v>
+        <v>0.181957773512476</v>
       </c>
       <c r="F254">
-        <v>0.25608215900026587</v>
+        <v>0.228733850129199</v>
       </c>
       <c r="G254">
-        <v>0.28211896138972442</v>
+        <v>0.43947100712105802</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255">
+        <v>1.0700508749371049</v>
+      </c>
+      <c r="D255">
+        <v>0.9603272705868503</v>
+      </c>
+      <c r="E255">
+        <v>0.72706313859051608</v>
+      </c>
+      <c r="F255">
+        <v>0.75879240585122942</v>
+      </c>
+      <c r="G255">
+        <v>0.60755137159631545</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256">
+        <v>7.8186274509803919</v>
+      </c>
+      <c r="D256">
+        <v>5.7977967306325517</v>
+      </c>
+      <c r="E256">
+        <v>3.510245383253225</v>
+      </c>
+      <c r="F256">
+        <v>3.7440491425646281</v>
+      </c>
+      <c r="G256">
+        <v>3.731426795150762</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+      <c r="B257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257">
+        <v>0.59171465310001681</v>
+      </c>
+      <c r="D257">
+        <v>0.53946671375595978</v>
+      </c>
+      <c r="E257">
+        <v>0.6391406864029342</v>
+      </c>
+      <c r="F257">
+        <v>0.62859217761178543</v>
+      </c>
+      <c r="G257">
+        <v>0.6394371899989878</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+      <c r="B258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258">
+        <v>0.40828534689998319</v>
+      </c>
+      <c r="D258">
+        <v>0.46053328624404027</v>
+      </c>
+      <c r="E258">
+        <v>0.36085931359706569</v>
+      </c>
+      <c r="F258">
+        <v>0.37140782238821463</v>
+      </c>
+      <c r="G258">
+        <v>0.36056281000101231</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+      <c r="B259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259">
+        <v>-1.19644723092999E-2</v>
+      </c>
+      <c r="D259">
+        <v>5.2650934722647869E-2</v>
+      </c>
+      <c r="E259">
+        <v>-9.5128279042951853E-3</v>
+      </c>
+      <c r="F259">
+        <v>1.7158873393491932E-2</v>
+      </c>
+      <c r="G259">
+        <v>2.6324558480506501E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+      <c r="B260" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260">
+        <v>-3.1356976584965078E-2</v>
+      </c>
+      <c r="D260">
+        <v>0.1097903885480573</v>
+      </c>
+      <c r="E260">
+        <v>-1.9166545665747058E-2</v>
+      </c>
+      <c r="F260">
+        <v>3.5055865921787707E-2</v>
+      </c>
+      <c r="G260">
+        <v>4.4357102751263332E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+      <c r="B261" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C255">
-        <v>0.1156942350075397</v>
-      </c>
-      <c r="D255">
-        <v>0.1610834453918106</v>
-      </c>
-      <c r="E255">
-        <v>0.16450468429513829</v>
-      </c>
-      <c r="F255">
-        <v>0.1833127141225733</v>
-      </c>
-      <c r="G255">
-        <v>0.2798173515981735</v>
+      <c r="C261">
+        <v>-1.2802594062727121E-2</v>
+      </c>
+      <c r="D261">
+        <v>5.0562128436046863E-2</v>
+      </c>
+      <c r="E261">
+        <v>-6.9164265129682996E-3</v>
+      </c>
+      <c r="F261">
+        <v>1.3020022823944389E-2</v>
+      </c>
+      <c r="G261">
+        <v>1.599352161149914E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>8.9289340101522843</v>
+      </c>
+      <c r="D262">
+        <v>9.036082474226804</v>
+      </c>
+      <c r="E262">
+        <v>9.182320441988951</v>
+      </c>
+      <c r="F262">
+        <v>8.3448275862068968</v>
+      </c>
+      <c r="G262">
+        <v>7.2735042735042734</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+      <c r="B263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>0.89847715736040612</v>
+      </c>
+      <c r="D263">
+        <v>1.195876288659794</v>
+      </c>
+      <c r="E263">
+        <v>1.3701657458563541</v>
+      </c>
+      <c r="F263">
+        <v>0.92610837438423643</v>
+      </c>
+      <c r="G263">
+        <v>0.84188034188034189</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264">
+        <v>0.29034771848414542</v>
+      </c>
+      <c r="D264">
+        <v>0.28019234449760771</v>
+      </c>
+      <c r="E264">
+        <v>0.20329427870862279</v>
+      </c>
+      <c r="F264">
+        <v>0.32328455675892498</v>
+      </c>
+      <c r="G264">
+        <v>0.36189959233591518</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+      <c r="B265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265">
+        <v>1775.033569739953</v>
+      </c>
+      <c r="D265">
+        <v>1756.806</v>
+      </c>
+      <c r="E265">
+        <v>1549.723052959502</v>
+      </c>
+      <c r="F265">
+        <v>2009.8463840398999</v>
+      </c>
+      <c r="G265">
+        <v>2069.3233100233101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266">
+        <v>0.10324825986078889</v>
+      </c>
+      <c r="D266">
+        <v>9.2902711323763959E-2</v>
+      </c>
+      <c r="E266">
+        <v>8.8271352676747031E-2</v>
+      </c>
+      <c r="F266">
+        <v>9.6269554753309269E-2</v>
+      </c>
+      <c r="G266">
+        <v>0.11944557684468</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267">
+        <v>0.89675174013921111</v>
+      </c>
+      <c r="D267">
+        <v>0.90709728867623607</v>
+      </c>
+      <c r="E267">
+        <v>0.91172864732325298</v>
+      </c>
+      <c r="F267">
+        <v>0.90373044524669077</v>
+      </c>
+      <c r="G267">
+        <v>0.88055442315532007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268">
+        <v>6.3381879901848487E-2</v>
+      </c>
+      <c r="D268">
+        <v>6.509896368751017E-2</v>
+      </c>
+      <c r="E268">
+        <v>2.195628964757244E-2</v>
+      </c>
+      <c r="F268">
+        <v>0.1199998659963839</v>
+      </c>
+      <c r="G268">
+        <v>0.15813531826953331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269">
+        <v>2.0521604139715391E-2</v>
+      </c>
+      <c r="D269">
+        <v>2.010835164835165E-2</v>
+      </c>
+      <c r="E269">
+        <v>4.8957418198117431E-3</v>
+      </c>
+      <c r="F269">
+        <v>4.2926631158455388E-2</v>
+      </c>
+      <c r="G269">
+        <v>6.4992129629629636E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270">
+        <v>1.840278422273782E-2</v>
+      </c>
+      <c r="D270">
+        <v>1.8240231259968102E-2</v>
+      </c>
+      <c r="E270">
+        <v>4.4635880670208421E-3</v>
+      </c>
+      <c r="F270">
+        <v>3.8794103489771359E-2</v>
+      </c>
+      <c r="G270">
+        <v>5.7229107215654301E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>1.16592334044341</v>
+      </c>
+      <c r="D271">
+        <v>1.14363623968914</v>
+      </c>
+      <c r="E271">
+        <v>1.110647919169081</v>
+      </c>
+      <c r="F271">
+        <v>1.114653672119736</v>
+      </c>
+      <c r="G271">
+        <v>1.125860091743119</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272">
+        <v>9.3077370564281555E-3</v>
+      </c>
+      <c r="D272">
+        <v>1.2202604131160951E-2</v>
+      </c>
+      <c r="E272">
+        <v>8.832049742104147E-3</v>
+      </c>
+      <c r="F272">
+        <v>1.2460842325095719E-2</v>
+      </c>
+      <c r="G272">
+        <v>1.318807339449541E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273">
+        <v>0.14558157929428309</v>
+      </c>
+      <c r="D273">
+        <v>0.12267347412392671</v>
+      </c>
+      <c r="E273">
+        <v>0.12454429007784019</v>
+      </c>
+      <c r="F273">
+        <v>0.17579774177712321</v>
+      </c>
+      <c r="G273">
+        <v>0.1704290626401555</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274">
+        <v>22.69178082191781</v>
+      </c>
+      <c r="D274">
+        <v>23.810810810810811</v>
+      </c>
+      <c r="E274">
+        <v>8.1025641025641022</v>
+      </c>
+      <c r="F274">
+        <v>16.578703703703699</v>
+      </c>
+      <c r="G274">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275">
+        <v>0.69358878586808459</v>
+      </c>
+      <c r="D275">
+        <v>0.69528893014620563</v>
+      </c>
+      <c r="E275">
+        <v>0.71273031825795641</v>
+      </c>
+      <c r="F275">
+        <v>0.71885125184094256</v>
+      </c>
+      <c r="G275">
+        <v>0.72023720536203717</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276">
+        <v>0.30645515665509521</v>
+      </c>
+      <c r="D276">
+        <v>0.30471106985379443</v>
+      </c>
+      <c r="E276">
+        <v>0.28726968174204348</v>
+      </c>
+      <c r="F276">
+        <v>0.28114874815905738</v>
+      </c>
+      <c r="G276">
+        <v>0.27976279463796278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277">
+        <v>0.16571083610021131</v>
+      </c>
+      <c r="D277">
+        <v>0.14074914869466509</v>
+      </c>
+      <c r="E277">
+        <v>0.1151107594936709</v>
+      </c>
+      <c r="F277">
+        <v>9.6621055571069536E-2</v>
+      </c>
+      <c r="G277">
+        <v>9.4736842105263161E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278">
+        <v>7.8720963579007749E-2</v>
+      </c>
+      <c r="D278">
+        <v>5.6664127951256672E-2</v>
+      </c>
+      <c r="E278">
+        <v>4.990567655633682E-2</v>
+      </c>
+      <c r="F278">
+        <v>6.041557534485769E-2</v>
+      </c>
+      <c r="G278">
+        <v>5.7712860705379412E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279">
+        <v>2.4124445225644851E-2</v>
+      </c>
+      <c r="D279">
+        <v>1.7266187050359708E-2</v>
+      </c>
+      <c r="E279">
+        <v>1.4336387821460239E-2</v>
+      </c>
+      <c r="F279">
+        <v>1.698576337751595E-2</v>
+      </c>
+      <c r="G279">
+        <v>1.614591119748841E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>1.497330960854093</v>
+      </c>
+      <c r="D280">
+        <v>1.2623376623376621</v>
+      </c>
+      <c r="E280">
+        <v>0.82742681047765798</v>
+      </c>
+      <c r="F280">
+        <v>0.84265734265734271</v>
+      </c>
+      <c r="G280">
+        <v>0.80903104421448735</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>0.30516014234875438</v>
+      </c>
+      <c r="D281">
+        <v>0.24329004329004331</v>
+      </c>
+      <c r="E281">
+        <v>0.15408320493066249</v>
+      </c>
+      <c r="F281">
+        <v>0.14947552447552451</v>
+      </c>
+      <c r="G281">
+        <v>0.1599247412982126</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282">
+        <v>1.9675174013921111</v>
+      </c>
+      <c r="D282">
+        <v>1.918335500650195</v>
+      </c>
+      <c r="E282">
+        <v>1.80209545983702</v>
+      </c>
+      <c r="F282">
+        <v>1.861386138613861</v>
+      </c>
+      <c r="G282">
+        <v>1.907043407043407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283">
+        <v>126.56716417910449</v>
+      </c>
+      <c r="D283">
+        <v>189.12820512820511</v>
+      </c>
+      <c r="E283">
+        <v>187.6363636363636</v>
+      </c>
+      <c r="F283">
+        <v>175.4666666666667</v>
+      </c>
+      <c r="G283">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>0.39095127610208819</v>
+      </c>
+      <c r="D284">
+        <v>0.44109232769830953</v>
+      </c>
+      <c r="E284">
+        <v>0.48282887077997672</v>
+      </c>
+      <c r="F284">
+        <v>0.47736916548797742</v>
+      </c>
+      <c r="G284">
+        <v>0.49754299754299752</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285">
+        <v>0.60812064965197221</v>
+      </c>
+      <c r="D285">
+        <v>0.55786736020806238</v>
+      </c>
+      <c r="E285">
+        <v>0.5160069848661234</v>
+      </c>
+      <c r="F285">
+        <v>0.52121640735502117</v>
+      </c>
+      <c r="G285">
+        <v>0.50081900081900077</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286">
+        <v>7.1462264150943394E-2</v>
+      </c>
+      <c r="D286">
+        <v>6.6296095444685468E-2</v>
+      </c>
+      <c r="E286">
+        <v>6.3468992248062017E-2</v>
+      </c>
+      <c r="F286">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="G286">
+        <v>9.7058191969078805E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287">
+        <v>0.23120946203739029</v>
+      </c>
+      <c r="D287">
+        <v>0.22797202797202801</v>
+      </c>
+      <c r="E287">
+        <v>0.22165820642978001</v>
+      </c>
+      <c r="F287">
+        <v>0.22795115332428759</v>
+      </c>
+      <c r="G287">
+        <v>0.3695829926410466</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288">
+        <v>0.14060324825986081</v>
+      </c>
+      <c r="D288">
+        <v>0.12717815344603381</v>
+      </c>
+      <c r="E288">
+        <v>0.1143771827706636</v>
+      </c>
+      <c r="F288">
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="G288">
+        <v>0.1850941850941851</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>1.5933034412365119</v>
+      </c>
+      <c r="D289">
+        <v>1.853240152477764</v>
+      </c>
+      <c r="E289">
+        <v>1.684195159929929</v>
+      </c>
+      <c r="F289">
+        <v>1.848359077489196</v>
+      </c>
+      <c r="G289">
+        <v>1.803673500495389</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290">
+        <v>4.5603674540682412E-2</v>
+      </c>
+      <c r="D290">
+        <v>0.10781172310922051</v>
+      </c>
+      <c r="E290">
+        <v>5.2098877570881733E-2</v>
+      </c>
+      <c r="F290">
+        <v>5.3356724145308287E-2</v>
+      </c>
+      <c r="G290">
+        <v>9.5495770139471081E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+      <c r="B291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291">
+        <v>0.50911561403399419</v>
+      </c>
+      <c r="D291">
+        <v>0.51692666957337852</v>
+      </c>
+      <c r="E291">
+        <v>0.35375420889918452</v>
+      </c>
+      <c r="F291">
+        <v>0.50032373718338985</v>
+      </c>
+      <c r="G291">
+        <v>0.33176333487096071</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292">
+        <v>1.944578026425426</v>
+      </c>
+      <c r="D292">
+        <v>2.1198254439663011</v>
+      </c>
+      <c r="E292">
+        <v>1.7417426330294681</v>
+      </c>
+      <c r="F292">
+        <v>2.107849523654425</v>
+      </c>
+      <c r="G292">
+        <v>3.2423775062284972</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+      <c r="B293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293">
+        <v>0.36772231190670601</v>
+      </c>
+      <c r="D293">
+        <v>0.30188665301990109</v>
+      </c>
+      <c r="E293">
+        <v>0.30986970712089767</v>
+      </c>
+      <c r="F293">
+        <v>0.29383739695976963</v>
+      </c>
+      <c r="G293">
+        <v>0.28091237951880349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294">
+        <v>0.63191617998117666</v>
+      </c>
+      <c r="D294">
+        <v>0.69753693125133942</v>
+      </c>
+      <c r="E294">
+        <v>0.68852854301042865</v>
+      </c>
+      <c r="F294">
+        <v>0.70524454237091583</v>
+      </c>
+      <c r="G294">
+        <v>0.7188448372138192</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+      <c r="B295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295">
+        <v>0.1489434636762077</v>
+      </c>
+      <c r="D295">
+        <v>0.23433881343817009</v>
+      </c>
+      <c r="E295">
+        <v>0.1768300104676355</v>
+      </c>
+      <c r="F295">
+        <v>0.26579491240608039</v>
+      </c>
+      <c r="G295">
+        <v>0.1289059641419685</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296">
+        <v>0.1199992109208554</v>
+      </c>
+      <c r="D296">
+        <v>0.17366246424409371</v>
+      </c>
+      <c r="E296">
+        <v>9.0852240038021864E-2</v>
+      </c>
+      <c r="F296">
+        <v>0.18856367672449231</v>
+      </c>
+      <c r="G296">
+        <v>5.9493050981981523E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297">
+        <v>7.5829442965862415E-2</v>
+      </c>
+      <c r="D297">
+        <v>0.1211359823823705</v>
+      </c>
+      <c r="E297">
+        <v>6.2554360462612923E-2</v>
+      </c>
+      <c r="F297">
+        <v>0.13298350389934191</v>
+      </c>
+      <c r="G297">
+        <v>4.2766272548495958E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>1.0850176856998479</v>
+      </c>
+      <c r="D298">
+        <v>0.69985948477751758</v>
+      </c>
+      <c r="E298">
+        <v>0.82954066582385166</v>
+      </c>
+      <c r="F298">
+        <v>1.465813253012048</v>
+      </c>
+      <c r="G298">
+        <v>2.4114329659061782</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+      <c r="B299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>0.12026275896917631</v>
+      </c>
+      <c r="D299">
+        <v>2.7728337236533961E-2</v>
+      </c>
+      <c r="E299">
+        <v>2.359882005899705E-2</v>
+      </c>
+      <c r="F299">
+        <v>1.219879518072289E-2</v>
+      </c>
+      <c r="G299">
+        <v>6.8187644193796457E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300">
+        <v>4.2270834378606188E-2</v>
+      </c>
+      <c r="D300">
+        <v>1.564564355747166E-2</v>
+      </c>
+      <c r="E300">
+        <v>3.9495461156527412E-2</v>
+      </c>
+      <c r="F300">
+        <v>6.3904391783303621E-2</v>
+      </c>
+      <c r="G300">
+        <v>6.3310426319226343E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+      <c r="B301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <v>8.821989528795811</v>
+      </c>
+      <c r="D301">
+        <v>7.03125</v>
+      </c>
+      <c r="E301">
+        <v>6.4549180327868854</v>
+      </c>
+      <c r="F301">
+        <v>8.2840909090909083</v>
+      </c>
+      <c r="G301">
+        <v>8.0474308300395254</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302">
+        <v>0.37419095880788722</v>
+      </c>
+      <c r="D302">
+        <v>0.3993000023178731</v>
+      </c>
+      <c r="E302">
+        <v>0.39407693465068461</v>
+      </c>
+      <c r="F302">
+        <v>0.3064313473395085</v>
+      </c>
+      <c r="G302">
+        <v>0.18691501601417951</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+      <c r="B303" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303">
+        <v>0.62580904119211278</v>
+      </c>
+      <c r="D303">
+        <v>0.6006999976821269</v>
+      </c>
+      <c r="E303">
+        <v>0.60592306534931539</v>
+      </c>
+      <c r="F303">
+        <v>0.6935686526604915</v>
+      </c>
+      <c r="G303">
+        <v>0.78369974190739766</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304">
+        <v>0.57863501483679525</v>
+      </c>
+      <c r="D304">
+        <v>-0.14370370370370369</v>
+      </c>
+      <c r="E304">
+        <v>0.1650793650793651</v>
+      </c>
+      <c r="F304">
+        <v>0.27297668038408779</v>
+      </c>
+      <c r="G304">
+        <v>0.29125736738703339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305">
+        <v>3.9084422352280927E-2</v>
+      </c>
+      <c r="D305">
+        <v>-3.7428615527087508E-3</v>
+      </c>
+      <c r="E305">
+        <v>1.0760253279807969E-2</v>
+      </c>
+      <c r="F305">
+        <v>2.515166835187058E-2</v>
+      </c>
+      <c r="G305">
+        <v>2.3528944966869018E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306">
+        <v>2.4459384877828508E-2</v>
+      </c>
+      <c r="D306">
+        <v>-2.2483369260366689E-3</v>
+      </c>
+      <c r="E306">
+        <v>6.5198856512362702E-3</v>
+      </c>
+      <c r="F306">
+        <v>1.74444087309704E-2</v>
+      </c>
+      <c r="G306">
+        <v>1.843962809788862E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>1.4220676572873849</v>
+      </c>
+      <c r="D307">
+        <v>1.4527845036319611</v>
+      </c>
+      <c r="E307">
+        <v>1.4912581419266371</v>
+      </c>
+      <c r="F307">
+        <v>1.28969696969697</v>
+      </c>
+      <c r="G307">
+        <v>1.519899805176733</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308">
+        <v>1.188744862472336</v>
+      </c>
+      <c r="D308">
+        <v>1.278796264268419</v>
+      </c>
+      <c r="E308">
+        <v>1.301336990058279</v>
+      </c>
+      <c r="F308">
+        <v>1.0363636363636359</v>
+      </c>
+      <c r="G308">
+        <v>0.98135263011411078</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309">
+        <v>0.8572610674389739</v>
+      </c>
+      <c r="D309">
+        <v>0.75413043478260866</v>
+      </c>
+      <c r="E309">
+        <v>0.89642936349523172</v>
+      </c>
+      <c r="F309">
+        <v>1.0577514273166451</v>
+      </c>
+      <c r="G309">
+        <v>0.74583600256245997</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310">
+        <v>24.963855421686748</v>
+      </c>
+      <c r="D310">
+        <v>35.397959183673471</v>
+      </c>
+      <c r="E310">
+        <v>8.1002004008016026</v>
+      </c>
+      <c r="F310">
+        <v>8.4806338028169019</v>
+      </c>
+      <c r="G310">
+        <v>5.0400432900432897</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311">
+        <v>0.69383533305750933</v>
+      </c>
+      <c r="D311">
+        <v>0.67782608695652169</v>
+      </c>
+      <c r="E311">
+        <v>0.64692836549123978</v>
+      </c>
+      <c r="F311">
+        <v>0.72463768115942029</v>
+      </c>
+      <c r="G311">
+        <v>0.57863549007046766</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312">
+        <v>0.30616466694249073</v>
+      </c>
+      <c r="D312">
+        <v>0.32239130434782609</v>
+      </c>
+      <c r="E312">
+        <v>0.35307163450876028</v>
+      </c>
+      <c r="F312">
+        <v>0.27536231884057971</v>
+      </c>
+      <c r="G312">
+        <v>0.42120435618193458</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313">
+        <v>0.12741312741312741</v>
+      </c>
+      <c r="D313">
+        <v>0.15249351398097441</v>
+      </c>
+      <c r="E313">
+        <v>0.243938644235527</v>
+      </c>
+      <c r="F313">
+        <v>-0.13182478721195759</v>
+      </c>
+      <c r="G313">
+        <v>0.1436547133347649</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314">
+        <v>0.35675675675675678</v>
+      </c>
+      <c r="D314">
+        <v>0.35670937289278493</v>
+      </c>
+      <c r="E314">
+        <v>0.6193467336683417</v>
+      </c>
+      <c r="F314">
+        <v>-0.50637958532695371</v>
+      </c>
+      <c r="G314">
+        <v>0.25437262357414447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="B315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315">
+        <v>0.10922631361191559</v>
+      </c>
+      <c r="D315">
+        <v>0.115</v>
+      </c>
+      <c r="E315">
+        <v>0.21867376358394319</v>
+      </c>
+      <c r="F315">
+        <v>-0.13943785682916121</v>
+      </c>
+      <c r="G315">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316">
+        <v>1.3001549186676991</v>
+      </c>
+      <c r="D316">
+        <v>1.3470620538165841</v>
+      </c>
+      <c r="E316">
+        <v>1.352980132450331</v>
+      </c>
+      <c r="G316">
+        <v>1.1381709741550701</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="B317" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>0.104570100697134</v>
+      </c>
+      <c r="D317">
+        <v>0.1274025260845689</v>
+      </c>
+      <c r="E317">
+        <v>0.1258278145695364</v>
+      </c>
+      <c r="G317">
+        <v>2.982107355864811E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318">
+        <v>0.68846815834767638</v>
+      </c>
+      <c r="D318">
+        <v>0.5895800106326422</v>
+      </c>
+      <c r="E318">
+        <v>0.58048927816369678</v>
+      </c>
+      <c r="G318">
+        <v>0.55507906727418921</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319">
+        <v>1.499531396438613</v>
+      </c>
+      <c r="D319">
+        <v>1.526496902959394</v>
+      </c>
+      <c r="E319">
+        <v>1.585808580858086</v>
+      </c>
+      <c r="G319">
+        <v>1.336129032258065</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+      <c r="B320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320">
+        <v>0.60821858864027534</v>
+      </c>
+      <c r="D320">
+        <v>0.53163211057947901</v>
+      </c>
+      <c r="E320">
+        <v>0.50015101177891874</v>
+      </c>
+      <c r="G320">
+        <v>0.5993031358885017</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+      <c r="B321" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321">
+        <v>0.39178141135972461</v>
+      </c>
+      <c r="D321">
+        <v>0.46836788942052099</v>
+      </c>
+      <c r="E321">
+        <v>0.49984898822108131</v>
+      </c>
+      <c r="G321">
+        <v>0.40069686411149819</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322">
+        <v>5.1874999999999998E-2</v>
+      </c>
+      <c r="D322">
+        <v>7.0784490532010816E-2</v>
+      </c>
+      <c r="E322">
+        <v>7.5442247658688871E-2</v>
+      </c>
+      <c r="F322">
+        <v>5.9947871416159863E-2</v>
+      </c>
+      <c r="G322">
+        <v>6.4220183486238536E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+      <c r="B323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323">
+        <v>9.1158704008786381E-2</v>
+      </c>
+      <c r="D323">
+        <v>8.9103291713961405E-2</v>
+      </c>
+      <c r="E323">
+        <v>8.7613293051359523E-2</v>
+      </c>
+      <c r="G323">
+        <v>8.8963210702341131E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324">
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="D324">
+        <v>4.1733120680489101E-2</v>
+      </c>
+      <c r="E324">
+        <v>4.379341588643914E-2</v>
+      </c>
+      <c r="G324">
+        <v>3.5647279549718573E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>2</v>
+      </c>
+      <c r="F325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>3.189982110912343</v>
+      </c>
+      <c r="D326">
+        <v>3.3650538225504989</v>
+      </c>
+      <c r="E326">
+        <v>3.2816904152016591</v>
+      </c>
+      <c r="F326">
+        <v>3.2827492615949549</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+      <c r="B327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327">
+        <v>0.57691824203452102</v>
+      </c>
+      <c r="D327">
+        <v>0.50336328472479042</v>
+      </c>
+      <c r="E327">
+        <v>0.62007538496001868</v>
+      </c>
+      <c r="F327">
+        <v>0.57269298315638217</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328">
+        <v>8.8762579272441564E-2</v>
+      </c>
+      <c r="D328">
+        <v>8.055546793386191E-2</v>
+      </c>
+      <c r="E328">
+        <v>8.3571729969570741E-2</v>
+      </c>
+      <c r="F328">
+        <v>9.0968548258267001E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329">
+        <v>0.34253302095497828</v>
+      </c>
+      <c r="D329">
+        <v>0.31303808603608152</v>
+      </c>
+      <c r="E329">
+        <v>0.34240388716261499</v>
+      </c>
+      <c r="F329">
+        <v>0.36734895228554287</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330">
+        <v>0.26303037821459863</v>
+      </c>
+      <c r="D330">
+        <v>0.25596131615618273</v>
+      </c>
+      <c r="E330">
+        <v>0.26669566462008037</v>
+      </c>
+      <c r="F330">
+        <v>0.27042671753573211</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331">
+        <v>0.73696962178540137</v>
+      </c>
+      <c r="D331">
+        <v>0.74403682832559892</v>
+      </c>
+      <c r="E331">
+        <v>0.73330619422308729</v>
+      </c>
+      <c r="F331">
+        <v>0.72957140306529966</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332">
+        <v>0.14321107911231579</v>
+      </c>
+      <c r="D332">
+        <v>0.14958308379785321</v>
+      </c>
+      <c r="E332">
+        <v>0.14789030005115769</v>
+      </c>
+      <c r="F332">
+        <v>0.13255376732847141</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C333">
+        <v>1.72487228599775E-2</v>
+      </c>
+      <c r="D333">
+        <v>1.6195079129944681E-2</v>
+      </c>
+      <c r="E333">
+        <v>1.6854416774821541E-2</v>
+      </c>
+      <c r="F333">
+        <v>1.6527818564944331E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334">
+        <v>1.271178476239883E-2</v>
+      </c>
+      <c r="D334">
+        <v>1.204973531032614E-2</v>
+      </c>
+      <c r="E334">
+        <v>1.235944822099415E-2</v>
+      </c>
+      <c r="F334">
+        <v>1.2058223780035141E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>2.4096969453214552</v>
+      </c>
+      <c r="D335">
+        <v>2.4035961635096461</v>
+      </c>
+      <c r="E335">
+        <v>2.6175835253456219</v>
+      </c>
+      <c r="F335">
+        <v>1.494697897397149</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>0.70217386932652293</v>
+      </c>
+      <c r="D336">
+        <v>0.7063642918004851</v>
+      </c>
+      <c r="E336">
+        <v>1.1016705069124419</v>
+      </c>
+      <c r="F336">
+        <v>0.10760532555170529</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>0.4519704144327476</v>
+      </c>
+      <c r="D337">
+        <v>0.48818722457536468</v>
+      </c>
+      <c r="E337">
+        <v>0.5057328205656263</v>
+      </c>
+      <c r="F337">
+        <v>0.67012178637601461</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>1.9984426640826429</v>
+      </c>
+      <c r="D338">
+        <v>2.060866581176513</v>
+      </c>
+      <c r="E338">
+        <v>2.6004143646408839</v>
+      </c>
+      <c r="F338">
+        <v>2.915208536515403</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339">
+        <v>0.30270809689664618</v>
+      </c>
+      <c r="D339">
+        <v>0.28173105720275532</v>
+      </c>
+      <c r="E339">
+        <v>0.26866580409467988</v>
+      </c>
+      <c r="F339">
+        <v>0.37791360881978647</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C340">
+        <v>0.69729190310335376</v>
+      </c>
+      <c r="D340">
+        <v>0.71826894279724462</v>
+      </c>
+      <c r="E340">
+        <v>0.73133419590532001</v>
+      </c>
+      <c r="F340">
+        <v>0.62208639118021358</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341">
+        <v>0.14514425241575171</v>
+      </c>
+      <c r="D341">
+        <v>0.14535862020612769</v>
+      </c>
+      <c r="E341">
+        <v>0.14294187425860019</v>
+      </c>
+      <c r="F341">
+        <v>0.1250713372035816</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342">
+        <v>9.4079549217360073E-2</v>
+      </c>
+      <c r="D342">
+        <v>9.8796171097384464E-2</v>
+      </c>
+      <c r="E342">
+        <v>9.8847281653841684E-2</v>
+      </c>
+      <c r="F342">
+        <v>0.13472892045153431</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343">
+        <v>6.5600907916878642E-2</v>
+      </c>
+      <c r="D343">
+        <v>7.0962221366534031E-2</v>
+      </c>
+      <c r="E343">
+        <v>7.2290397245738991E-2</v>
+      </c>
+      <c r="F343">
+        <v>8.3813027911301019E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>3.769041769041769</v>
+      </c>
+      <c r="D344">
+        <v>2.334808259587021</v>
+      </c>
+      <c r="E344">
+        <v>2.1001353179972941</v>
+      </c>
+      <c r="F344">
+        <v>2.2113323124042878</v>
+      </c>
+      <c r="G344">
+        <v>1.765415549597855</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345">
+        <v>0.48894348894348888</v>
+      </c>
+      <c r="D345">
+        <v>0.2286135693215339</v>
+      </c>
+      <c r="E345">
+        <v>0.28416779431664407</v>
+      </c>
+      <c r="F345">
+        <v>0.23277182235834609</v>
+      </c>
+      <c r="G345">
+        <v>7.5067024128686322E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346">
+        <v>0.38034508627156788</v>
+      </c>
+      <c r="D346">
+        <v>0.47695605573419081</v>
+      </c>
+      <c r="E346">
+        <v>0.48103574033552149</v>
+      </c>
+      <c r="F346">
+        <v>0.36460386283011431</v>
+      </c>
+      <c r="G346">
+        <v>0.32561916362159959</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="B347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347">
+        <v>1.9314285714285711</v>
+      </c>
+      <c r="D347">
+        <v>2.3586572438162539</v>
+      </c>
+      <c r="E347">
+        <v>2.172981878088962</v>
+      </c>
+      <c r="F347">
+        <v>1.7552182163187851</v>
+      </c>
+      <c r="G347">
+        <v>1.9095238095238101</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348">
+        <v>0.17291822955738931</v>
+      </c>
+      <c r="D348">
+        <v>0.27545551982851019</v>
+      </c>
+      <c r="E348">
+        <v>0.28884026258205692</v>
+      </c>
+      <c r="F348">
+        <v>0.26606227828143469</v>
+      </c>
+      <c r="G348">
+        <v>0.31749898497766949</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="B349" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349">
+        <v>0.82708177044261066</v>
+      </c>
+      <c r="D349">
+        <v>0.72454448017148987</v>
+      </c>
+      <c r="E349">
+        <v>0.71115973741794314</v>
+      </c>
+      <c r="F349">
+        <v>0.73393772171856519</v>
+      </c>
+      <c r="G349">
+        <v>0.68290702395452696</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350">
+        <v>0.23668639053254439</v>
+      </c>
+      <c r="D350">
+        <v>0.14831460674157301</v>
+      </c>
+      <c r="E350">
+        <v>0.112964366944655</v>
+      </c>
+      <c r="F350">
+        <v>0.19459459459459461</v>
+      </c>
+      <c r="G350">
+        <v>0.17082294264339151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351">
+        <v>0.108843537414966</v>
+      </c>
+      <c r="D351">
+        <v>9.7633136094674555E-2</v>
+      </c>
+      <c r="E351">
+        <v>7.6410256410256408E-2</v>
+      </c>
+      <c r="F351">
+        <v>9.6670247046186902E-2</v>
+      </c>
+      <c r="G351">
+        <v>8.1450653983353147E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C352">
+        <v>9.0022505626406596E-2</v>
+      </c>
+      <c r="D352">
+        <v>7.0739549839228297E-2</v>
+      </c>
+      <c r="E352">
+        <v>5.4339897884755663E-2</v>
+      </c>
+      <c r="F352">
+        <v>7.0949940875049272E-2</v>
+      </c>
+      <c r="G352">
+        <v>5.562322371092164E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>1.9648682559598489</v>
+      </c>
+      <c r="D353">
+        <v>2.1524590163934429</v>
+      </c>
+      <c r="E353">
+        <v>1.761194029850746</v>
+      </c>
+      <c r="F353">
+        <v>3.6764705882352939</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354">
+        <v>7.2772898368883315E-2</v>
+      </c>
+      <c r="D354">
+        <v>0.1262295081967213</v>
+      </c>
+      <c r="E354">
+        <v>3.6635006784260522E-2</v>
+      </c>
+      <c r="F354">
+        <v>0.1139705882352941</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+      <c r="B355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355">
+        <v>0.49465431218816819</v>
+      </c>
+      <c r="D355">
+        <v>0.50801526717557255</v>
+      </c>
+      <c r="E355">
+        <v>0.45028355387523628</v>
+      </c>
+      <c r="F355">
+        <v>0.64342806394316165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="B356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356">
+        <v>1.692682926829268</v>
+      </c>
+      <c r="D356">
+        <v>1.9345930232558139</v>
+      </c>
+      <c r="E356">
+        <v>1.837962962962963</v>
+      </c>
+      <c r="F356">
+        <v>2.8922155688622748</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+      <c r="B357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357">
+        <v>0.36493228795438348</v>
+      </c>
+      <c r="D357">
+        <v>0.33702290076335878</v>
+      </c>
+      <c r="E357">
+        <v>0.36786389413988663</v>
+      </c>
+      <c r="F357">
+        <v>0.25621669626998222</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+      <c r="B358" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358">
+        <v>0.63506771204561652</v>
+      </c>
+      <c r="D358">
+        <v>0.66297709923664128</v>
+      </c>
+      <c r="E358">
+        <v>0.63213610586011337</v>
+      </c>
+      <c r="F358">
+        <v>0.74378330373001778</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+      <c r="B359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359">
+        <v>5.5475504322766572E-2</v>
+      </c>
+      <c r="D359">
+        <v>5.4845980465815167E-2</v>
+      </c>
+      <c r="E359">
+        <v>3.6943744752308993E-2</v>
+      </c>
+      <c r="F359">
+        <v>0.1048999309868875</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+      <c r="B360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360">
+        <v>4.3209876543209867E-2</v>
+      </c>
+      <c r="D360">
+        <v>4.2026482440990207E-2</v>
+      </c>
+      <c r="E360">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="F360">
+        <v>9.0746268656716422E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+      <c r="B361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361">
+        <v>2.744119743406985E-2</v>
+      </c>
+      <c r="D361">
+        <v>2.7862595419847331E-2</v>
+      </c>
+      <c r="E361">
+        <v>1.6635160680529299E-2</v>
+      </c>
+      <c r="F361">
+        <v>6.7495559502664296E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362">
+        <v>1.25738789005993</v>
+      </c>
+      <c r="D362">
+        <v>1.134132922535211</v>
+      </c>
+      <c r="E362">
+        <v>0.95013052479971194</v>
+      </c>
+      <c r="F362">
+        <v>1.0014957464709731</v>
+      </c>
+      <c r="G362">
+        <v>1.0051945506223661</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+      <c r="B363" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363">
+        <v>1.1159330440173591E-2</v>
+      </c>
+      <c r="D363">
+        <v>1.045334507042254E-2</v>
+      </c>
+      <c r="E363">
+        <v>7.111351156719777E-3</v>
+      </c>
+      <c r="F363">
+        <v>1.5705337945218289E-2</v>
+      </c>
+      <c r="G363">
+        <v>2.0582181711261398E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="B364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364">
+        <v>0.6359670620527399</v>
+      </c>
+      <c r="D364">
+        <v>0.66818130182892199</v>
+      </c>
+      <c r="E364">
+        <v>0.67075594933833138</v>
+      </c>
+      <c r="F364">
+        <v>1.042878817863975</v>
+      </c>
+      <c r="G364">
+        <v>1.111126593743468</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+      <c r="B365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
+        <v>8.7846987136086661</v>
+      </c>
+      <c r="D365">
+        <v>13.11482720178372</v>
+      </c>
+      <c r="E365">
+        <v>16.89556509298999</v>
+      </c>
+      <c r="F365">
+        <v>7.787684729064039</v>
+      </c>
+      <c r="G365">
+        <v>8.5055999999999994</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+      <c r="B366" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366">
+        <v>0.85354377021860606</v>
+      </c>
+      <c r="D366">
+        <v>0.8359082131091673</v>
+      </c>
+      <c r="E366">
+        <v>0.84029079343442947</v>
+      </c>
+      <c r="F366">
+        <v>0.81456560459133187</v>
+      </c>
+      <c r="G366">
+        <v>0.80840242458022715</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+      <c r="B367" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367">
+        <v>0.146456229781394</v>
+      </c>
+      <c r="D367">
+        <v>0.1640917868908327</v>
+      </c>
+      <c r="E367">
+        <v>0.1597092065655705</v>
+      </c>
+      <c r="F367">
+        <v>0.1854343954086681</v>
+      </c>
+      <c r="G367">
+        <v>0.1915975754197729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+      <c r="B368" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368">
+        <v>1.0635838150289021E-2</v>
+      </c>
+      <c r="D368">
+        <v>8.9255355321319271E-3</v>
+      </c>
+      <c r="E368">
+        <v>5.3344623200677404E-3</v>
+      </c>
+      <c r="F368">
+        <v>7.7803782655449429E-3</v>
+      </c>
+      <c r="G368">
+        <v>8.1514923501379479E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
+      <c r="B369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369">
+        <v>4.6184738955823292E-2</v>
+      </c>
+      <c r="D369">
+        <v>3.6344755970924188E-2</v>
+      </c>
+      <c r="E369">
+        <v>2.2403982930298719E-2</v>
+      </c>
+      <c r="F369">
+        <v>4.3756670224119533E-2</v>
+      </c>
+      <c r="G369">
+        <v>4.7272727272727272E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+      <c r="B370" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C370">
+        <v>6.764042740907754E-3</v>
+      </c>
+      <c r="D370">
+        <v>5.9638759513802111E-3</v>
+      </c>
+      <c r="E370">
+        <v>3.578122337706594E-3</v>
+      </c>
+      <c r="F370">
+        <v>8.1139916881060748E-3</v>
+      </c>
+      <c r="G370">
+        <v>9.0573399289347167E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>1.790149892933619</v>
+      </c>
+      <c r="D371">
+        <v>1.458616010854817</v>
+      </c>
+      <c r="E371">
+        <v>1.330971659919028</v>
+      </c>
+      <c r="F371">
+        <v>1.3490870032223421</v>
+      </c>
+      <c r="G371">
+        <v>1.293218720152818</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="B372" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372">
+        <v>8.5653104925053538E-3</v>
+      </c>
+      <c r="D372">
+        <v>4.0705563093622792E-3</v>
+      </c>
+      <c r="E372">
+        <v>3.0364372469635628E-3</v>
+      </c>
+      <c r="F372">
+        <v>1.181525241675618E-2</v>
+      </c>
+      <c r="G372">
+        <v>7.6408787010506206E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
+      <c r="B373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373">
+        <v>2.8330645161290322</v>
+      </c>
+      <c r="D373">
+        <v>1.8982118294360391</v>
+      </c>
+      <c r="E373">
+        <v>1.274212368728121</v>
+      </c>
+      <c r="F373">
+        <v>1.017825311942959</v>
+      </c>
+      <c r="G373">
+        <v>1.0267094017094021</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+      <c r="B374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374">
+        <v>11.187898089171981</v>
+      </c>
+      <c r="D374">
+        <v>8.7341772151898738</v>
+      </c>
+      <c r="E374">
+        <v>11.805405405405409</v>
+      </c>
+      <c r="F374">
+        <v>13.92682926829268</v>
+      </c>
+      <c r="G374">
+        <v>9.240384615384615</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
+      <c r="B375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375">
+        <v>0.41935483870967738</v>
+      </c>
+      <c r="D375">
+        <v>0.53163686382393394</v>
+      </c>
+      <c r="E375">
+        <v>0.59918319719953328</v>
+      </c>
+      <c r="F375">
+        <v>0.57813428401663691</v>
+      </c>
+      <c r="G375">
+        <v>0.5838675213675214</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+      <c r="B376" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376">
+        <v>0.53870967741935483</v>
+      </c>
+      <c r="D376">
+        <v>0.43328748280605228</v>
+      </c>
+      <c r="E376">
+        <v>0.3716452742123687</v>
+      </c>
+      <c r="F376">
+        <v>0.39096850861556742</v>
+      </c>
+      <c r="G376">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+      <c r="B377" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377">
+        <v>8.2550526615428402E-3</v>
+      </c>
+      <c r="D377">
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="E377">
+        <v>5.036630036630037E-3</v>
+      </c>
+      <c r="F377">
+        <v>7.0052539404553424E-3</v>
+      </c>
+      <c r="G377">
+        <v>5.2029136316337149E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+      <c r="B378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378">
+        <v>4.3413173652694613E-2</v>
+      </c>
+      <c r="D378">
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="E378">
+        <v>1.726844583987441E-2</v>
+      </c>
+      <c r="F378">
+        <v>1.82370820668693E-2</v>
+      </c>
+      <c r="G378">
+        <v>1.373626373626374E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
+      <c r="B379" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379">
+        <v>2.3387096774193549E-2</v>
+      </c>
+      <c r="D379">
+        <v>8.253094910591471E-3</v>
+      </c>
+      <c r="E379">
+        <v>6.4177362893815633E-3</v>
+      </c>
+      <c r="F379">
+        <v>7.1301247771836003E-3</v>
+      </c>
+      <c r="G379">
+        <v>5.341880341880342E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>4.7261306532663321</v>
+      </c>
+      <c r="D380">
+        <v>4.4872521246458934</v>
+      </c>
+      <c r="E380">
+        <v>5.6754385964912277</v>
+      </c>
+      <c r="F380">
+        <v>8.4420289855072461</v>
+      </c>
+      <c r="G380">
+        <v>8.1885245901639347</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
+      <c r="B381" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381">
+        <v>4.0201005025125629E-2</v>
+      </c>
+      <c r="D381">
+        <v>9.0651558073654395E-2</v>
+      </c>
+      <c r="E381">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="F381">
+        <v>0.2318840579710145</v>
+      </c>
+      <c r="G381">
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+      <c r="B382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382">
+        <v>0.6009869580542827</v>
+      </c>
+      <c r="D382">
+        <v>0.53813721732464548</v>
+      </c>
+      <c r="E382">
+        <v>0.5198603230030554</v>
+      </c>
+      <c r="F382">
+        <v>0.73661567877629064</v>
+      </c>
+      <c r="G382">
+        <v>0.74325782092772386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
+      <c r="B383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383">
+        <v>2.8416666666666668</v>
+      </c>
+      <c r="D383">
+        <v>2.0436681222707418</v>
+      </c>
+      <c r="E383">
+        <v>1.9685950413223141</v>
+      </c>
+      <c r="F383">
+        <v>2.4894991922455572</v>
+      </c>
+      <c r="G383">
+        <v>2.396521739130435</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
+      <c r="B384" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>0.18047232992597809</v>
+      </c>
+      <c r="D384">
+        <v>0.15561517822920659</v>
+      </c>
+      <c r="E384">
+        <v>0.1230903535573985</v>
+      </c>
+      <c r="F384">
+        <v>8.7476099426386233E-2</v>
+      </c>
+      <c r="G384">
+        <v>8.7918015102481123E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+      <c r="B385" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385">
+        <v>0.81917518505463516</v>
+      </c>
+      <c r="D385">
+        <v>0.84476811038712152</v>
+      </c>
+      <c r="E385">
+        <v>0.8769096464426015</v>
+      </c>
+      <c r="F385">
+        <v>0.91252390057361377</v>
+      </c>
+      <c r="G385">
+        <v>0.9115426105717368</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+      <c r="B386" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386">
+        <v>0.2193548387096774</v>
+      </c>
+      <c r="D386">
+        <v>0.1745014245014245</v>
+      </c>
+      <c r="E386">
+        <v>9.8236775818639793E-2</v>
+      </c>
+      <c r="F386">
+        <v>0.1421155094094744</v>
+      </c>
+      <c r="G386">
+        <v>0.15602322206095789</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
+      <c r="B387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C387">
+        <v>0.16092943201376941</v>
+      </c>
+      <c r="D387">
+        <v>0.1111615245009074</v>
+      </c>
+      <c r="E387">
+        <v>5.823792931806869E-2</v>
+      </c>
+      <c r="F387">
+        <v>0.1147197485594552</v>
+      </c>
+      <c r="G387">
+        <v>0.12721893491124259</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
+      <c r="B388" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C388">
+        <v>0.13182939725061679</v>
+      </c>
+      <c r="D388">
+        <v>9.3905711000383293E-2</v>
+      </c>
+      <c r="E388">
+        <v>5.1069402007856833E-2</v>
+      </c>
+      <c r="F388">
+        <v>0.10468451242829829</v>
+      </c>
+      <c r="G388">
+        <v>0.11596548004314999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>1.463979096677865</v>
+      </c>
+      <c r="D389">
+        <v>1.5372316126084971</v>
+      </c>
+      <c r="E389">
+        <v>1.7292768959435629</v>
+      </c>
+      <c r="F389">
+        <v>1.4618380062305301</v>
+      </c>
+      <c r="G389">
+        <v>1.4241379310344831</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
+      <c r="B390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390">
+        <v>9.29451287793953E-2</v>
+      </c>
+      <c r="D390">
+        <v>0.13202375513933301</v>
+      </c>
+      <c r="E390">
+        <v>0.12962962962962959</v>
+      </c>
+      <c r="F390">
+        <v>8.8006230529595011E-2</v>
+      </c>
+      <c r="G390">
+        <v>0.17471264367816089</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
+      <c r="B391" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391">
+        <v>0.70062405127340188</v>
+      </c>
+      <c r="D391">
+        <v>0.7300735440270324</v>
+      </c>
+      <c r="E391">
+        <v>1.247149460708783</v>
+      </c>
+      <c r="F391">
+        <v>1.3599497013517761</v>
+      </c>
+      <c r="G391">
+        <v>1.704097714736013</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
+      <c r="B392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392">
+        <v>6.5314465408805029</v>
+      </c>
+      <c r="D392">
+        <v>5.5316265060240966</v>
+      </c>
+      <c r="E392">
+        <v>6.6344262295081968</v>
+      </c>
+      <c r="F392">
+        <v>6.8885350318471339</v>
+      </c>
+      <c r="G392">
+        <v>8.2380952380952372</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+      <c r="B393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393">
+        <v>0.49839770618991402</v>
+      </c>
+      <c r="D393">
+        <v>0.4527926853508249</v>
+      </c>
+      <c r="E393">
+        <v>0.37750385208012333</v>
+      </c>
+      <c r="F393">
+        <v>0.44797233574347689</v>
+      </c>
+      <c r="G393">
+        <v>0.4164696611505122</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
+      <c r="B394" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394">
+        <v>0.50160229381008603</v>
+      </c>
+      <c r="D394">
+        <v>0.54720731464917516</v>
+      </c>
+      <c r="E394">
+        <v>0.62280431432973804</v>
+      </c>
+      <c r="F394">
+        <v>0.55202766425652305</v>
+      </c>
+      <c r="G394">
+        <v>0.5835303388494878</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
+      <c r="B395" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395">
+        <v>5.8016369764082809E-2</v>
+      </c>
+      <c r="D395">
+        <v>6.3435883473999449E-2</v>
+      </c>
+      <c r="E395">
+        <v>6.5233506300963681E-2</v>
+      </c>
+      <c r="F395">
+        <v>6.3800277392510402E-2</v>
+      </c>
+      <c r="G395">
+        <v>6.1271676300578032E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+      <c r="B396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C396">
+        <v>8.1035642232683253E-2</v>
+      </c>
+      <c r="D396">
+        <v>8.4634943697784237E-2</v>
+      </c>
+      <c r="E396">
+        <v>0.13062840178129639</v>
+      </c>
+      <c r="F396">
+        <v>0.15717539863325741</v>
+      </c>
+      <c r="G396">
+        <v>0.17893315327481429</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+      <c r="B397" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C397">
+        <v>4.0647664024287398E-2</v>
+      </c>
+      <c r="D397">
+        <v>4.6312860266348642E-2</v>
+      </c>
+      <c r="E397">
+        <v>8.1355932203389825E-2</v>
+      </c>
+      <c r="F397">
+        <v>8.6765168186104996E-2</v>
+      </c>
+      <c r="G397">
+        <v>0.1044129235618597</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398">
+        <v>2.476754785779399</v>
+      </c>
+      <c r="D398">
+        <v>2.714749368914533</v>
+      </c>
+      <c r="E398">
+        <v>2.8782908933966338</v>
+      </c>
+      <c r="F398">
+        <v>3.1207920792079209</v>
+      </c>
+      <c r="G398">
+        <v>1.705579399141631</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+      <c r="B399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399">
+        <v>2.3093284715891831E-2</v>
+      </c>
+      <c r="D399">
+        <v>3.2095203750450767E-2</v>
+      </c>
+      <c r="E399">
+        <v>5.826499784203712E-2</v>
+      </c>
+      <c r="F399">
+        <v>4.2079207920792082E-2</v>
+      </c>
+      <c r="G399">
+        <v>7.2961373390557943E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+      <c r="B400" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400">
+        <v>1.080967843301561</v>
+      </c>
+      <c r="D400">
+        <v>0.81253485000557601</v>
+      </c>
+      <c r="E400">
+        <v>0.79720451201569398</v>
+      </c>
+      <c r="F400">
+        <v>0.79227730342806169</v>
+      </c>
+      <c r="G400">
+        <v>0.6980433632998414</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+      <c r="B401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401">
+        <v>3.1617647058823528</v>
+      </c>
+      <c r="D401">
+        <v>2.281152160300564</v>
+      </c>
+      <c r="E401">
+        <v>2.3464453265968959</v>
+      </c>
+      <c r="F401">
+        <v>2.478867623604466</v>
+      </c>
+      <c r="G401">
+        <v>2.335249889429456</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+      <c r="B402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402">
+        <v>0.55378652979993714</v>
+      </c>
+      <c r="D402">
+        <v>0.52927400468384078</v>
+      </c>
+      <c r="E402">
+        <v>0.5074791564492398</v>
+      </c>
+      <c r="F402">
+        <v>0.47011596788581622</v>
+      </c>
+      <c r="G402">
+        <v>0.48281332628239032</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+      <c r="B403" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403">
+        <v>0.44621347020006291</v>
+      </c>
+      <c r="D403">
+        <v>0.47083751533400248</v>
+      </c>
+      <c r="E403">
+        <v>0.49264345267287879</v>
+      </c>
+      <c r="F403">
+        <v>0.52988403211418378</v>
+      </c>
+      <c r="G403">
+        <v>0.51718667371760974</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+      <c r="B404" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404">
+        <v>1.065891472868217E-2</v>
+      </c>
+      <c r="D404">
+        <v>4.5429590996431513E-2</v>
+      </c>
+      <c r="E404">
+        <v>5.321439557059366E-2</v>
+      </c>
+      <c r="F404">
+        <v>7.7046807141708223E-2</v>
+      </c>
+      <c r="G404">
+        <v>0.10170454545454551</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+      <c r="B405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C405">
+        <v>2.582159624413146E-2</v>
+      </c>
+      <c r="D405">
+        <v>7.8398863098057797E-2</v>
+      </c>
+      <c r="E405">
+        <v>8.6112493777999011E-2</v>
+      </c>
+      <c r="F405">
+        <v>0.1151996151996152</v>
+      </c>
+      <c r="G405">
+        <v>0.13726993865030679</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+      <c r="B406" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C406">
+        <v>1.152194406619881E-2</v>
+      </c>
+      <c r="D406">
+        <v>3.6913125906100137E-2</v>
+      </c>
+      <c r="E406">
+        <v>4.2422756253065227E-2</v>
+      </c>
+      <c r="F406">
+        <v>6.1042436599974513E-2</v>
+      </c>
+      <c r="G406">
+        <v>7.0994182971972505E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>2.7711515931175481</v>
+      </c>
+      <c r="D407">
+        <v>3.368419625914882</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+      <c r="B408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408">
+        <v>2.3752038776963542</v>
+      </c>
+      <c r="D408">
+        <v>3.060233125508268</v>
+      </c>
+      <c r="E408">
+        <v>3.5133938454726592</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409">
+        <v>0.30385991871726947</v>
+      </c>
+      <c r="D409">
+        <v>0.26513051722016778</v>
+      </c>
+      <c r="E409">
+        <v>0.39143812162037839</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
+      <c r="B410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410">
+        <v>778.65284974093265</v>
+      </c>
+      <c r="D410">
+        <v>493.0820995962315</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
+      <c r="B411" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C411">
+        <v>0.45631558727783728</v>
+      </c>
+      <c r="D411">
+        <v>0.45841324060471422</v>
+      </c>
+      <c r="E411">
+        <v>0.48256651913031923</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
+      <c r="B412" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412">
+        <v>0.54368441272216261</v>
+      </c>
+      <c r="D412">
+        <v>0.54158675939528589</v>
+      </c>
+      <c r="E412">
+        <v>0.51743348086968077</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
+      <c r="B413" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413">
+        <v>0.25359329252062818</v>
+      </c>
+      <c r="D413">
+        <v>0.28974232994868437</v>
+      </c>
+      <c r="E413">
+        <v>0.24620044915652581</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
+      <c r="B414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C414">
+        <v>0.14173081929413511</v>
+      </c>
+      <c r="D414">
+        <v>0.14184160241591731</v>
+      </c>
+      <c r="E414">
+        <v>0.18625049387593839</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+      <c r="B415" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C415">
+        <v>7.7056837252562835E-2</v>
+      </c>
+      <c r="D415">
+        <v>7.6819533799871192E-2</v>
+      </c>
+      <c r="E415">
+        <v>9.6372241359923949E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="46">
+    <mergeCell ref="A407:A415"/>
+    <mergeCell ref="A362:A370"/>
+    <mergeCell ref="A371:A379"/>
+    <mergeCell ref="A380:A388"/>
+    <mergeCell ref="A389:A397"/>
+    <mergeCell ref="A398:A406"/>
+    <mergeCell ref="A316:A324"/>
+    <mergeCell ref="A325:A334"/>
+    <mergeCell ref="A335:A343"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="A353:A361"/>
+    <mergeCell ref="A271:A279"/>
+    <mergeCell ref="A280:A288"/>
+    <mergeCell ref="A289:A297"/>
+    <mergeCell ref="A298:A306"/>
+    <mergeCell ref="A307:A315"/>
+    <mergeCell ref="A220:A237"/>
+    <mergeCell ref="A238:A246"/>
+    <mergeCell ref="A247:A252"/>
+    <mergeCell ref="A253:A261"/>
+    <mergeCell ref="A262:A270"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="A187:A195"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A202:A210"/>
+    <mergeCell ref="A211:A219"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A169:A177"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A82:A90"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="A118:A126"/>
-    <mergeCell ref="A127:A135"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="A154:A162"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A169:A177"/>
-    <mergeCell ref="A220:A228"/>
-    <mergeCell ref="A229:A237"/>
-    <mergeCell ref="A238:A246"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="A187:A195"/>
-    <mergeCell ref="A196:A204"/>
-    <mergeCell ref="A205:A210"/>
-    <mergeCell ref="A211:A219"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tutorial/My projects/My Portfolio/fundamental.xlsx
+++ b/Tutorial/My projects/My Portfolio/fundamental.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10505,8 +10505,430 @@
         <v>0.2456479690522244</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>JMISMDL</t>
+        </is>
+      </c>
+      <c r="B434" s="1" t="inlineStr">
+        <is>
+          <t>current ratio</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>3.358752166377816</v>
+      </c>
+      <c r="D434" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E434" t="n">
+        <v>3.553846153846154</v>
+      </c>
+      <c r="F434" t="n">
+        <v>5.1353591160221</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.943970767356882</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n"/>
+      <c r="B435" s="1" t="inlineStr">
+        <is>
+          <t>cash ratio</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.6065857885615251</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.05576923076923077</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.9364640883977901</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.01339829476248477</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n"/>
+      <c r="B436" s="1" t="inlineStr">
+        <is>
+          <t>Total Asset turnover</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7128654970760234</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.6397176772537696</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.5945864661654136</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.5850608752879236</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.5078627591136526</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n"/>
+      <c r="B437" s="1" t="inlineStr">
+        <is>
+          <t>Account receivable turnover</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>4.670498084291188</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3.140157480314961</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.254275940706956</v>
+      </c>
+      <c r="F437" t="n">
+        <v>3.39961759082218</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2.722222222222222</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n"/>
+      <c r="B438" s="1" t="inlineStr">
+        <is>
+          <t>Debt Ratio</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.1970760233918129</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.1299326275264678</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.1912781954887218</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.1523527476143468</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.7197998570407433</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n"/>
+      <c r="B439" s="1" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.7994152046783626</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.8658966955405839</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.8051127819548872</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.8433695294504772</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2759113652609007</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n"/>
+      <c r="B440" s="1" t="inlineStr">
+        <is>
+          <t>Profit margin ratio</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.04142739950779328</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.04463390170511534</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.04855842185128983</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.03768278965129359</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.05277973258268825</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n"/>
+      <c r="B441" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.03694220921726409</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.03297517599110782</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.03586103847590587</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.02614124073351541</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.09715025906735751</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n"/>
+      <c r="B442" s="1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.02953216374269006</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.02855309592556946</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.02887218045112782</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.02204672589667654</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.0268048606147248</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>BPML</t>
+        </is>
+      </c>
+      <c r="B443" s="1" t="inlineStr">
+        <is>
+          <t>current ratio</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1.471151216844408</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1.661256289563383</v>
+      </c>
+      <c r="E443" t="n">
+        <v>1.455940315315315</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1.155278510349237</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1.097371714643304</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n"/>
+      <c r="B444" s="1" t="inlineStr">
+        <is>
+          <t>cash ratio</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.0880503144654088</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.09024509008277877</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.0736204954954955</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.04850955006792936</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1591155611180642</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n"/>
+      <c r="B445" s="1" t="inlineStr">
+        <is>
+          <t>Total Asset turnover</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.3224307109657428</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.3230105431643411</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.3101945977345338</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.3656993308156099</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.4317692123533637</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n"/>
+      <c r="B446" s="1" t="inlineStr">
+        <is>
+          <t>Account receivable turnover</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>11.06102362204724</v>
+      </c>
+      <c r="D446" t="n">
+        <v>12.08723958333333</v>
+      </c>
+      <c r="E446" t="n">
+        <v>6.076813655761025</v>
+      </c>
+      <c r="F446" t="n">
+        <v>2.988359501894965</v>
+      </c>
+      <c r="G446" t="n">
+        <v>4.344038538739462</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n"/>
+      <c r="B447" s="1" t="inlineStr">
+        <is>
+          <t>Debt Ratio</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.6250071727778734</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.7177354814015797</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.7194670345628812</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.7522030080169615</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.6987870082196154</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n"/>
+      <c r="B448" s="1" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.3749928272221266</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.2822645185984203</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.2805329654371188</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.2477969919830385</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.301252892825792</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n"/>
+      <c r="B449" s="1" t="inlineStr">
+        <is>
+          <t>Profit margin ratio</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.04520377291332978</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.0442744802326834</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.03347378277153558</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.0264516713470423</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.06413455318362443</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n"/>
+      <c r="B450" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.03886763580719204</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.05066568047337278</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.03701307104956646</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.03903743315508022</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.09192052980132451</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n"/>
+      <c r="B451" s="1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.01457508463877891</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.01430112390827795</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.01038338658146965</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.009673358510567814</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.02769132551272843</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
@@ -10555,6 +10977,8 @@
     <mergeCell ref="A407:A415"/>
     <mergeCell ref="A416:A424"/>
     <mergeCell ref="A425:A433"/>
+    <mergeCell ref="A434:A442"/>
+    <mergeCell ref="A443:A451"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
